--- a/amphibianDisease/project_data.xlsx
+++ b/amphibianDisease/project_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdeck/IdeaProjects/geome-configurations/amphibianDisease/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB4FB84-D485-B041-A531-D1C4B1F641A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0248F80-BAB7-6A4F-8DCD-5F5EF450B0CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="24460" windowWidth="37560" windowHeight="17540" xr2:uid="{87B2717E-456E-9945-BDD7-9BDF39B569DB}"/>
+    <workbookView xWindow="1360" yWindow="1280" windowWidth="28800" windowHeight="17540" xr2:uid="{87B2717E-456E-9945-BDD7-9BDF39B569DB}"/>
   </bookViews>
   <sheets>
     <sheet name="ImportToGeome" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
   </sheets>
   <definedNames>
     <definedName name="disease_tracking_data" localSheetId="3">'Complete Workbook'!$A$1:$BF$45</definedName>
-    <definedName name="disease_tracking_data" localSheetId="0">ImportToGeome!$A$1:$BH$43</definedName>
+    <definedName name="disease_tracking_data" localSheetId="0">ImportToGeome!$A$1:$BJ$43</definedName>
     <definedName name="disease_tracking_data" localSheetId="1">Sheet3!$A$1:$BG$45</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{53E14CE5-92A2-BE41-AB45-3F277A55E9CA}" name="disease_tracking_data" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jdeck/Desktop/disease_tracking_data.csv" tab="0" delimiter="|">
+    <textPr sourceFile="/Users/jdeck/Desktop/disease_tracking_data.csv" tab="0" delimiter="|">
       <textFields count="53">
         <textField/>
         <textField/>
@@ -100,7 +100,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{4917918B-D107-774E-B86D-9555F6DC2740}" name="disease_tracking_data1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jdeck/Desktop/disease_tracking_data.csv" tab="0" delimiter="|">
+    <textPr sourceFile="/Users/jdeck/Desktop/disease_tracking_data.csv" tab="0" delimiter="|">
       <textFields count="53">
         <textField/>
         <textField/>
@@ -159,7 +159,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{CC31036D-B872-1140-AFEE-1FD9B4E88904}" name="disease_tracking_data2" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jdeck/Desktop/disease_tracking_data.csv" tab="0" delimiter="|">
+    <textPr sourceFile="/Users/jdeck/Desktop/disease_tracking_data.csv" tab="0" delimiter="|">
       <textFields count="53">
         <textField/>
         <textField/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="626">
   <si>
     <t>id</t>
   </si>
@@ -2020,9 +2020,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>downloaded</t>
-  </si>
-  <si>
     <t>uploaded</t>
   </si>
   <si>
@@ -2039,6 +2036,69 @@
   </si>
   <si>
     <t>https://doi.org/doi:10.1016/j.biocon.2015.08.039</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>gabon</t>
+  </si>
+  <si>
+    <t>raysofhope</t>
+  </si>
+  <si>
+    <t>pyrenees</t>
+  </si>
+  <si>
+    <t>zawacki</t>
+  </si>
+  <si>
+    <t>japumayo</t>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>ksonipata</t>
+  </si>
+  <si>
+    <t>bsalam</t>
+  </si>
+  <si>
+    <t>threemt</t>
+  </si>
+  <si>
+    <t>invasian</t>
+  </si>
+  <si>
+    <t>indonesia</t>
+  </si>
+  <si>
+    <t>cambridge</t>
+  </si>
+  <si>
+    <t>sierra</t>
+  </si>
+  <si>
+    <t>costarica</t>
+  </si>
+  <si>
+    <t>newts</t>
+  </si>
+  <si>
+    <t>bullfrogs</t>
+  </si>
+  <si>
+    <t>ca_islands</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>same as #64</t>
+  </si>
+  <si>
+    <t>not uploaded</t>
   </si>
 </sst>
 </file>
@@ -2070,12 +2130,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2090,7 +2162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2100,6 +2172,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2426,254 +2519,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC96A785-D9F0-B74E-9FAA-6694B3FC8D06}">
-  <dimension ref="A1:CA43"/>
+  <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="920" activePane="bottomLeft"/>
-      <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" customWidth="1"/>
-    <col min="17" max="17" width="25.83203125" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="20.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="15.83203125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="20" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="24" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="25" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="20" hidden="1" customWidth="1"/>
-    <col min="33" max="34" width="4.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="79.33203125" hidden="1" customWidth="1"/>
-    <col min="36" max="37" width="80.6640625" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="23" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="80.6640625" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="35" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="22" customWidth="1"/>
-    <col min="42" max="43" width="12.83203125" hidden="1" customWidth="1"/>
-    <col min="44" max="45" width="14.5" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="15" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="8.1640625" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="153.6640625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="132.5" style="5" customWidth="1"/>
-    <col min="52" max="53" width="80.6640625" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="6" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="27.83203125" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="27.1640625" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="33.83203125" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" customWidth="1"/>
+    <col min="19" max="19" width="25.83203125" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
+    <col min="21" max="21" width="43.33203125" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="20.33203125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="20" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="24" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="25" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="20" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="4.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="79.33203125" hidden="1" customWidth="1"/>
+    <col min="38" max="39" width="80.6640625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="23" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="35" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="22" hidden="1" customWidth="1"/>
+    <col min="44" max="45" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="46" max="47" width="14.5" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="15" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="8.1640625" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="153.6640625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="41.5" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="15.83203125" style="5" hidden="1" customWidth="1"/>
+    <col min="54" max="55" width="80.6640625" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="27.83203125" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="27.1640625" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="11.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>4</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>5</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>6</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>18</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>19</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>20</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>22</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>23</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>24</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>27</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>28</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>29</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>31</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>32</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>35</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>36</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>38</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>539</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>39</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>40</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>46</v>
       </c>
@@ -2681,2620 +2781,2695 @@
         <v>289</v>
       </c>
       <c r="C2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I2" t="s">
+        <v>554</v>
+      </c>
+      <c r="J2" t="s">
+        <v>571</v>
+      </c>
+      <c r="K2" t="s">
+        <v>554</v>
+      </c>
+      <c r="L2" t="s">
+        <v>560</v>
+      </c>
+      <c r="M2" t="s">
         <v>546</v>
       </c>
-      <c r="D2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="N2" t="s">
         <v>296</v>
       </c>
-      <c r="F2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G2" t="s">
-        <v>560</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>301</v>
-      </c>
-      <c r="N2" t="s">
-        <v>600</v>
-      </c>
-      <c r="O2" t="str">
+      <c r="O2" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q2" t="str">
         <f>CONCATENATE(A2,".xlsx")</f>
         <v>46.xlsx</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>298</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>288</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>290</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>463</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>85</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>378</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>85</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>1</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
         <v>291</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>292</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AI2" s="3">
         <v>1428020000000</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AJ2" s="3">
         <v>1430870000000</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>293</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>2015</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>294</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>295</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>297</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <v>-0.95585860907127995</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>11.772445550756</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <v>-4.9160000000000002E-2</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <v>13.641400000000001</v>
       </c>
-      <c r="AT2">
+      <c r="AV2">
         <v>10.213179999999999</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <v>-2.3196699999999999</v>
       </c>
-      <c r="AV2">
+      <c r="AX2">
         <v>254371</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>299</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="BA2" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>302</v>
       </c>
-      <c r="BB2">
+      <c r="BD2">
         <v>1</v>
       </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="s">
         <v>303</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>304</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>305</v>
       </c>
-      <c r="BH2">
+      <c r="BJ2">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:62" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="N3" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="F3" t="s">
-        <v>523</v>
-      </c>
-      <c r="G3" t="s">
-        <v>565</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>517</v>
-      </c>
-      <c r="L3" t="s">
-        <v>522</v>
-      </c>
-      <c r="M3" t="s">
-        <v>523</v>
-      </c>
-      <c r="N3" t="s">
-        <v>600</v>
-      </c>
-      <c r="O3" t="str">
+      <c r="O3" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q3" s="17" t="str">
         <f>CONCATENATE(A3,".xlsx")</f>
         <v>101.xlsx</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="T3">
+      <c r="V3" s="17">
         <v>2924</v>
       </c>
-      <c r="U3">
+      <c r="W3" s="17">
         <v>665</v>
       </c>
-      <c r="V3">
+      <c r="X3" s="17">
         <v>2259</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+      <c r="Y3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="17">
         <v>665</v>
       </c>
-      <c r="Y3">
+      <c r="AA3" s="17">
         <v>14</v>
       </c>
-      <c r="AA3">
+      <c r="AC3" s="17">
         <v>1</v>
       </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AI3" s="19">
         <v>1350780000000</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="AJ3" s="19">
         <v>1469660000000</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AL3" s="20">
         <v>2.01220132014201E+19</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AQ3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AP3">
+      <c r="AR3" s="17">
         <v>8.6559820630192998</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3" s="17">
         <v>-80.428695097836993</v>
       </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
+      <c r="AT3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="17">
         <v>235072</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AZ3" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="AY3" s="5" t="s">
+      <c r="BA3" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BC3" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="s">
+      <c r="BD3" s="17">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="17">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BH3" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BI3" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="BH3">
+      <c r="BJ3" s="17">
         <v>1559155555</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:62" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>110</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" t="s">
-        <v>537</v>
-      </c>
-      <c r="G4" t="s">
-        <v>547</v>
-      </c>
-      <c r="I4" t="s">
-        <v>526</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" t="s">
-        <v>537</v>
-      </c>
-      <c r="N4" t="s">
-        <v>600</v>
-      </c>
-      <c r="O4" t="str">
+      <c r="O4" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q4" s="17" t="str">
         <f>CONCATENATE(A4,".xlsx")</f>
         <v>110.xlsx</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="T4">
+      <c r="V4" s="17">
         <v>1951</v>
       </c>
-      <c r="U4">
+      <c r="W4" s="17">
         <v>34</v>
       </c>
-      <c r="V4">
+      <c r="X4" s="17">
         <v>1917</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="Y4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="17">
         <v>34</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
+      <c r="AA4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="17">
         <v>1</v>
       </c>
-      <c r="AB4">
+      <c r="AD4" s="17">
         <v>1</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AI4" s="19">
         <v>-2871680000000</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AJ4" s="19">
         <v>1388530000000</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AK4" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AP4">
+      <c r="AR4" s="17">
         <v>42.756463142096997</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4" s="17">
         <v>0.17207713209636</v>
       </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
+      <c r="AT4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="17">
         <v>241848</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AZ4" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="AY4" s="5" t="s">
+      <c r="BA4" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BC4" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="s">
+      <c r="BD4" s="17">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="17">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BI4" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="BH4">
+      <c r="BJ4" s="17">
         <v>1562959769</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:62" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="D5" t="s">
-        <v>401</v>
-      </c>
-      <c r="F5" t="s">
-        <v>557</v>
-      </c>
-      <c r="G5" t="s">
-        <v>563</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>396</v>
-      </c>
-      <c r="L5" t="s">
-        <v>401</v>
-      </c>
-      <c r="M5" t="s">
-        <v>402</v>
-      </c>
-      <c r="N5" t="s">
-        <v>600</v>
-      </c>
-      <c r="O5" t="str">
+      <c r="O5" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q5" s="7" t="str">
         <f>CONCATENATE(A5,".xlsx")</f>
         <v>83.xlsx</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="T5">
+      <c r="V5" s="7">
         <v>847</v>
       </c>
-      <c r="U5">
+      <c r="W5" s="7">
         <v>548</v>
       </c>
-      <c r="V5">
+      <c r="X5" s="7">
         <v>299</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
         <v>548</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
         <v>1</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AI5" s="9">
         <v>1377820000000</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AJ5" s="9">
         <v>1385420000000</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AK5" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5" s="7">
         <v>2013</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AM5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AP5" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AQ5" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="AP5">
+      <c r="AR5" s="7">
         <v>-36.174442739078998</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5" s="7">
         <v>148.44334592679999</v>
       </c>
-      <c r="AR5">
+      <c r="AT5" s="7">
         <v>-35.957999999999998</v>
       </c>
-      <c r="AS5">
+      <c r="AU5" s="7">
         <v>148.48400000000001</v>
       </c>
-      <c r="AT5">
+      <c r="AV5" s="7">
         <v>148.399</v>
       </c>
-      <c r="AU5">
+      <c r="AW5" s="7">
         <v>-36.372</v>
       </c>
-      <c r="AV5">
+      <c r="AX5" s="7">
         <v>24366</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AZ5" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="AY5" s="5" t="s">
+      <c r="BA5" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BC5" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="BB5">
+      <c r="BD5" s="7">
         <v>1</v>
       </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="s">
+      <c r="BE5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BH5" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BI5" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="BH5">
+      <c r="BJ5" s="7">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:62" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="N6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F6" t="s">
-        <v>431</v>
-      </c>
-      <c r="G6" t="s">
-        <v>547</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>604</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="O6" t="str">
+      <c r="Q6" s="7" t="str">
         <f>CONCATENATE(A6,".xlsx")</f>
         <v>49.xlsx</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="T6">
+      <c r="V6" s="7">
         <v>656</v>
       </c>
-      <c r="U6">
+      <c r="W6" s="7">
         <v>22</v>
       </c>
-      <c r="V6">
+      <c r="X6" s="7">
         <v>634</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
         <v>22</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
         <v>1</v>
       </c>
-      <c r="AB6">
+      <c r="AD6" s="7">
         <v>1</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AI6" s="9">
         <v>-2038690000000</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AJ6" s="9">
         <v>1278290000000</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AK6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AL6" s="11">
         <v>1.9051927192819201E+103</v>
       </c>
-      <c r="AK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="s">
+      <c r="AM6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AQ6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AP6">
+      <c r="AR6" s="7">
         <v>34.275925380030003</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6" s="7">
         <v>-119.87441351631</v>
       </c>
-      <c r="AR6">
+      <c r="AT6" s="7">
         <v>37.899956899999999</v>
       </c>
-      <c r="AS6">
+      <c r="AU6" s="7">
         <v>-118.3317729</v>
       </c>
-      <c r="AT6">
+      <c r="AV6" s="7">
         <v>-123.000619</v>
       </c>
-      <c r="AU6">
+      <c r="AW6" s="7">
         <v>33.335817300000002</v>
       </c>
-      <c r="AV6">
+      <c r="AX6" s="7">
         <v>472952</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AZ6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AY6" s="5" t="s">
+      <c r="BA6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BB6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BC6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="BB6">
+      <c r="BD6" s="7">
         <v>1</v>
       </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="s">
+      <c r="BE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BH6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BI6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="BH6">
+      <c r="BJ6" s="7">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:62" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="D7" t="s">
+      <c r="N7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="V7" s="7">
+        <v>70</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>70</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>1434500000000</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>1435100000000</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>2015</v>
+      </c>
+      <c r="AM7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>-13.450020142856999</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>-71.021631999999997</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>-13.445040000000001</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>-71.003429999999994</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>-71.119010000000003</v>
+      </c>
+      <c r="AW7" s="7">
+        <v>-13.50037</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>11925</v>
+      </c>
+      <c r="AZ7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD7" s="7">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ7" s="7">
+        <v>1486587520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>55</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q8" s="7" t="str">
+        <f t="shared" ref="Q8:Q18" si="0">CONCATENATE(A8,".xlsx")</f>
+        <v>55.xlsx</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="V8" s="7">
+        <v>1980</v>
+      </c>
+      <c r="W8" s="7">
+        <v>22</v>
+      </c>
+      <c r="X8" s="7">
+        <v>1958</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>1114390000000</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>1317690000000</v>
+      </c>
+      <c r="AK8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>2.005200720082E+23</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO8" s="11">
+        <v>2.4915924916024899E+209</v>
+      </c>
+      <c r="AP8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>16.114622587006</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>106.2670363485</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>47.813249999999996</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>151.44666659999999</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>67.028333329999995</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>-9.4466666670000006</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>5509291</v>
+      </c>
+      <c r="AZ8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="BA8" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="BC8" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="BD8" s="7">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="BH8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="BI8" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="BJ8" s="7">
+        <v>1486587520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>58</v>
       </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>58.xlsx</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="V9" s="7">
+        <v>543</v>
+      </c>
+      <c r="W9" s="7">
+        <v>298</v>
+      </c>
+      <c r="X9" s="7">
+        <v>245</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>298</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG9" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>1339630000000</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>1345590000000</v>
+      </c>
+      <c r="AK9" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>2012</v>
+      </c>
+      <c r="AM9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP9" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ9" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>-13.099733598526999</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>-71.564456570901996</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>-13.025779999999999</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>-71.484080000000006</v>
+      </c>
+      <c r="AV9" s="7">
+        <v>-71.640299999999996</v>
+      </c>
+      <c r="AW9" s="7">
+        <v>-13.189399999999999</v>
+      </c>
+      <c r="AX9" s="7">
+        <v>11975</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA9" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="BB9" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC9" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="BD9" s="7">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="BH9" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="BI9" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="BJ9" s="7">
+        <v>1518046086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M10" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>64.xlsx</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" s="7">
+        <v>509</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0</v>
+      </c>
+      <c r="X10" s="7">
+        <v>509</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>1371000000000</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>1451950000000</v>
+      </c>
+      <c r="AK10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL10" s="11">
+        <v>2013201420152010</v>
+      </c>
+      <c r="AM10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR10" s="7">
+        <v>28.535856065560001</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>-32.244275811552001</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="7">
+        <v>6293826</v>
+      </c>
+      <c r="AY10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="AZ10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA10" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="BB10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="BD10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="BJ10" s="7">
+        <v>1486587520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>66</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J7" t="s">
+      <c r="F11" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
-        <v>603</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="H11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>66.xlsx</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="12">
+        <v>509</v>
+      </c>
+      <c r="W11" s="12">
+        <v>26</v>
+      </c>
+      <c r="X11" s="12">
+        <v>483</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>1371000000000</v>
+      </c>
+      <c r="AJ11" s="14">
+        <v>1451950000000</v>
+      </c>
+      <c r="AK11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL11" s="15">
+        <v>2013201420152010</v>
+      </c>
+      <c r="AM11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR11" s="12">
+        <v>28.535856065560001</v>
+      </c>
+      <c r="AS11" s="12">
+        <v>-32.244275811552001</v>
+      </c>
+      <c r="AT11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="12">
+        <v>6293826</v>
+      </c>
+      <c r="AY11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD11" s="12">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ11" s="12">
+        <v>1486587520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>85</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="O12" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="O7" t="s">
-        <v>578</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="Q12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>85.xlsx</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="V12" s="17">
+        <v>459</v>
+      </c>
+      <c r="W12" s="17">
+        <v>44</v>
+      </c>
+      <c r="X12" s="17">
+        <v>415</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>44</v>
+      </c>
+      <c r="AA12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="AG12" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI12" s="19">
+        <v>1490920000000</v>
+      </c>
+      <c r="AJ12" s="19">
+        <v>1490920000000</v>
+      </c>
+      <c r="AK12" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL12" s="17">
+        <v>2017</v>
+      </c>
+      <c r="AM12" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP12" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="AQ12" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR12" s="17">
+        <v>36.588718278866999</v>
+      </c>
+      <c r="AS12" s="17">
+        <v>-121.76782041394</v>
+      </c>
+      <c r="AT12" s="17">
+        <v>37.896839999999997</v>
+      </c>
+      <c r="AU12" s="17">
+        <v>-119.62817</v>
+      </c>
+      <c r="AV12" s="17">
+        <v>-122.34007</v>
+      </c>
+      <c r="AW12" s="17">
+        <v>36.046019999999999</v>
+      </c>
+      <c r="AX12" s="17">
+        <v>210252</v>
+      </c>
+      <c r="AZ12" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="BA12" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="BB12" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="BC12" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="BD12" s="17">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="17">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="BH12" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="BI12" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="BJ12" s="17">
+        <v>1491156975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>88</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>88.xlsx</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="V13" s="17">
+        <v>736</v>
+      </c>
+      <c r="W13" s="17">
+        <v>76</v>
+      </c>
+      <c r="X13" s="17">
+        <v>660</v>
+      </c>
+      <c r="Y13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>76</v>
+      </c>
+      <c r="AA13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG13" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="AI13" s="19">
+        <v>1467760000000</v>
+      </c>
+      <c r="AJ13" s="19">
+        <v>1468280000000</v>
+      </c>
+      <c r="AK13" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="AL13" s="17">
+        <v>2016</v>
+      </c>
+      <c r="AM13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP13" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="AQ13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="AR13" s="17">
+        <v>-6.8168868441576</v>
+      </c>
+      <c r="AS13" s="17">
+        <v>106.9309391413</v>
+      </c>
+      <c r="AT13" s="17">
+        <v>-6.7579361000000002</v>
+      </c>
+      <c r="AU13" s="17">
+        <v>106.9795944</v>
+      </c>
+      <c r="AV13" s="17">
+        <v>106.8714167</v>
+      </c>
+      <c r="AW13" s="17">
+        <v>-6.8606806000000002</v>
+      </c>
+      <c r="AX13" s="17">
+        <v>8475</v>
+      </c>
+      <c r="AZ13" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="BA13" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="BB13" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="BC13" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="BD13" s="17">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="17">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="BH13" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="BI13" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="BJ13" s="17">
+        <v>1491157348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>89</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>89.xlsx</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="V14" s="7">
+        <v>84</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7">
+        <v>84</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="AG14" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>1465860000000</v>
+      </c>
+      <c r="AJ14" s="9">
+        <v>1503790000000</v>
+      </c>
+      <c r="AK14" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL14" s="11">
+        <v>20162017</v>
+      </c>
+      <c r="AM14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP14" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="AQ14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR14" s="7">
+        <v>52.200038999999997</v>
+      </c>
+      <c r="AS14" s="7">
+        <v>0.13544887</v>
+      </c>
+      <c r="AT14" s="7">
+        <v>52.200038999999997</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>0.13544887</v>
+      </c>
+      <c r="AV14" s="7">
+        <v>0.13544887</v>
+      </c>
+      <c r="AW14" s="7">
+        <v>52.200038999999997</v>
+      </c>
+      <c r="AX14" s="7">
+        <v>4</v>
+      </c>
+      <c r="AZ14" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="BA14" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="BC14" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="BD14" s="7">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="BH14" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="BI14" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="BJ14" s="7">
+        <v>1560473522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>92</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q15" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>92.xlsx</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="V15" s="17">
+        <v>1197</v>
+      </c>
+      <c r="W15" s="17">
+        <v>139</v>
+      </c>
+      <c r="X15" s="17">
+        <v>1058</v>
+      </c>
+      <c r="Y15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17">
+        <v>139</v>
+      </c>
+      <c r="AA15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG15" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI15" s="19">
+        <v>-2208820000000</v>
+      </c>
+      <c r="AJ15" s="19">
+        <v>1104710000000</v>
+      </c>
+      <c r="AK15" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL15" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM15" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ15" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR15" s="17">
+        <v>37.821729023682003</v>
+      </c>
+      <c r="AS15" s="17">
+        <v>-119.54259554951</v>
+      </c>
+      <c r="AT15" s="17">
+        <v>40.87557778</v>
+      </c>
+      <c r="AU15" s="17">
+        <v>-116.23375277778</v>
+      </c>
+      <c r="AV15" s="17">
+        <v>-121.6768167</v>
+      </c>
+      <c r="AW15" s="17">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="AX15" s="17">
+        <v>552614</v>
+      </c>
+      <c r="AZ15" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA15" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="BB15" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC15" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD15" s="17">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="17">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH15" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI15" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ15" s="17">
+        <v>1507869826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>93</v>
       </c>
-      <c r="R7" t="s">
-        <v>84</v>
-      </c>
-      <c r="S7" t="s">
-        <v>86</v>
-      </c>
-      <c r="T7">
+      <c r="B16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>93.xlsx</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="V16" s="7">
+        <v>1034</v>
+      </c>
+      <c r="W16" s="7">
         <v>70</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="X16" s="7">
+        <v>964</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
         <v>70</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
         <v>1</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>1434500000000</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>1435100000000</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ7">
-        <v>2015</v>
-      </c>
-      <c r="AK7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP7">
-        <v>-13.450020142856999</v>
-      </c>
-      <c r="AQ7">
-        <v>-71.021631999999997</v>
-      </c>
-      <c r="AR7">
-        <v>-13.445040000000001</v>
-      </c>
-      <c r="AS7">
-        <v>-71.003429999999994</v>
-      </c>
-      <c r="AT7">
-        <v>-71.119010000000003</v>
-      </c>
-      <c r="AU7">
-        <v>-13.50037</v>
-      </c>
-      <c r="AV7">
-        <v>11925</v>
-      </c>
-      <c r="AX7" t="s">
+      <c r="AD16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>-270432000000</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>1305850000000</v>
+      </c>
+      <c r="AK16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL16" s="11">
+        <v>1.96119631964196E+195</v>
+      </c>
+      <c r="AM16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>9.8802132843328003</v>
+      </c>
+      <c r="AS16" s="7">
+        <v>-83.941771940039004</v>
+      </c>
+      <c r="AT16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="7">
+        <v>363358</v>
+      </c>
+      <c r="AZ16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD16" s="7">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ16" s="7">
+        <v>1559263907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>94</v>
       </c>
-      <c r="AY7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB7">
+      <c r="B17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>94.xlsx</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="V17" s="7">
+        <v>1894</v>
+      </c>
+      <c r="W17" s="7">
+        <v>58</v>
+      </c>
+      <c r="X17" s="7">
+        <v>1836</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>58</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7">
         <v>1</v>
       </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>99</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH7">
-        <v>1486587520</v>
+      <c r="AE17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>-2429830000000</v>
+      </c>
+      <c r="AJ17" s="9">
+        <v>1420240000000</v>
+      </c>
+      <c r="AK17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR17" s="7">
+        <v>38.122422092925</v>
+      </c>
+      <c r="AS17" s="7">
+        <v>-121.73130237381</v>
+      </c>
+      <c r="AT17" s="7">
+        <v>41.950606999999998</v>
+      </c>
+      <c r="AU17" s="7">
+        <v>-116.62099000000001</v>
+      </c>
+      <c r="AV17" s="7">
+        <v>-124.237831</v>
+      </c>
+      <c r="AW17" s="7">
+        <v>32.715277999999998</v>
+      </c>
+      <c r="AX17" s="7">
+        <v>734608</v>
+      </c>
+      <c r="AZ17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="BA17" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="BB17" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="BC17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD17" s="7">
+        <v>1</v>
+      </c>
+      <c r="BE17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="BI17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="BJ17" s="7">
+        <v>1516219195</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="18" spans="1:62" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>96</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E8" t="s">
-        <v>313</v>
-      </c>
-      <c r="F8" t="s">
-        <v>431</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H18" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" t="s">
-        <v>602</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="M18" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="O8" t="str">
-        <f>CONCATENATE(A8,".xlsx")</f>
-        <v>55.xlsx</v>
-      </c>
-      <c r="P8" t="s">
-        <v>315</v>
-      </c>
-      <c r="R8" t="s">
-        <v>306</v>
-      </c>
-      <c r="S8" t="s">
-        <v>308</v>
-      </c>
-      <c r="T8">
-        <v>1980</v>
-      </c>
-      <c r="U8">
-        <v>22</v>
-      </c>
-      <c r="V8">
-        <v>1958</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>22</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
+      <c r="Q18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>96.xlsx</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="V18" s="7">
+        <v>7913</v>
+      </c>
+      <c r="W18" s="7">
+        <v>863</v>
+      </c>
+      <c r="X18" s="7">
+        <v>7050</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>863</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
         <v>1</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>1114390000000</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>1317690000000</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>311</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>2.005200720082E+23</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>2.4915924916024899E+209</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>312</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>314</v>
-      </c>
-      <c r="AP8">
-        <v>16.114622587006</v>
-      </c>
-      <c r="AQ8">
-        <v>106.2670363485</v>
-      </c>
-      <c r="AR8">
-        <v>47.813249999999996</v>
-      </c>
-      <c r="AS8">
-        <v>151.44666659999999</v>
-      </c>
-      <c r="AT8">
-        <v>67.028333329999995</v>
-      </c>
-      <c r="AU8">
-        <v>-9.4466666670000006</v>
-      </c>
-      <c r="AV8">
-        <v>5509291</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>316</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>318</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>320</v>
-      </c>
-      <c r="BB8">
+      <c r="AD18" s="7">
         <v>1</v>
       </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>321</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>322</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>323</v>
-      </c>
-      <c r="BH8">
-        <v>1486587520</v>
+      <c r="AE18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="AG18" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI18" s="9">
+        <v>-2587510000000</v>
+      </c>
+      <c r="AJ18" s="9">
+        <v>1397290000000</v>
+      </c>
+      <c r="AK18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL18" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="AM18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO18" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="AP18" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="AQ18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR18" s="7">
+        <v>34.981829243638998</v>
+      </c>
+      <c r="AS18" s="7">
+        <v>-112.33832645547</v>
+      </c>
+      <c r="AT18" s="7">
+        <v>59.553377640000001</v>
+      </c>
+      <c r="AU18" s="7">
+        <v>-87.621440000000007</v>
+      </c>
+      <c r="AV18" s="7">
+        <v>-133.79147739999999</v>
+      </c>
+      <c r="AW18" s="7">
+        <v>14.96002</v>
+      </c>
+      <c r="AX18" s="7">
+        <v>3144127</v>
+      </c>
+      <c r="AZ18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA18" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="BC18" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="BD18" s="7">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="BH18" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="BI18" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="BJ18" s="7">
+        <v>1534825024</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" t="s">
-        <v>545</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" t="s">
-        <v>547</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" t="s">
-        <v>599</v>
-      </c>
-      <c r="O9" t="str">
-        <f>CONCATENATE(A9,".xlsx")</f>
-        <v>58.xlsx</v>
-      </c>
-      <c r="P9" t="s">
-        <v>281</v>
-      </c>
-      <c r="R9" t="s">
-        <v>274</v>
-      </c>
-      <c r="T9">
-        <v>543</v>
-      </c>
-      <c r="U9">
-        <v>298</v>
-      </c>
-      <c r="V9">
-        <v>245</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>298</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>1339630000000</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>1345590000000</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>278</v>
-      </c>
-      <c r="AJ9">
-        <v>2012</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>279</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>280</v>
-      </c>
-      <c r="AP9">
-        <v>-13.099733598526999</v>
-      </c>
-      <c r="AQ9">
-        <v>-71.564456570901996</v>
-      </c>
-      <c r="AR9">
-        <v>-13.025779999999999</v>
-      </c>
-      <c r="AS9">
-        <v>-71.484080000000006</v>
-      </c>
-      <c r="AT9">
-        <v>-71.640299999999996</v>
-      </c>
-      <c r="AU9">
-        <v>-13.189399999999999</v>
-      </c>
-      <c r="AV9">
-        <v>11975</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY9" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>283</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>284</v>
-      </c>
-      <c r="BB9">
-        <v>1</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>285</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>286</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>287</v>
-      </c>
-      <c r="BH9">
-        <v>1518046086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>361</v>
-      </c>
-      <c r="C10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>561</v>
-      </c>
-      <c r="I10" t="s">
-        <v>171</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>601</v>
-      </c>
-      <c r="L10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" t="s">
-        <v>599</v>
-      </c>
-      <c r="O10" t="str">
-        <f>CONCATENATE(A10,".xlsx")</f>
-        <v>64.xlsx</v>
-      </c>
-      <c r="P10" t="s">
-        <v>362</v>
-      </c>
-      <c r="R10" t="s">
-        <v>360</v>
-      </c>
-      <c r="S10" t="s">
-        <v>45</v>
-      </c>
-      <c r="T10">
-        <v>509</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>509</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>1371000000000</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>1451950000000</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ10" s="2">
-        <v>2013201420152010</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP10">
-        <v>28.535856065560001</v>
-      </c>
-      <c r="AQ10">
-        <v>-32.244275811552001</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>6293826</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>363</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY10" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>365</v>
-      </c>
-      <c r="BB10">
-        <v>1</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>366</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>367</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>368</v>
-      </c>
-      <c r="BH10">
-        <v>1486587520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>541</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>561</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>601</v>
-      </c>
-      <c r="L11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" t="s">
-        <v>599</v>
-      </c>
-      <c r="O11" t="str">
-        <f>CONCATENATE(A11,".xlsx")</f>
-        <v>66.xlsx</v>
-      </c>
-      <c r="P11" t="s">
-        <v>53</v>
-      </c>
-      <c r="R11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" t="s">
-        <v>45</v>
-      </c>
-      <c r="T11">
-        <v>509</v>
-      </c>
-      <c r="U11">
-        <v>26</v>
-      </c>
-      <c r="V11">
-        <v>483</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>26</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>1371000000000</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>1451950000000</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>2013201420152010</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP11">
-        <v>28.535856065560001</v>
-      </c>
-      <c r="AQ11">
-        <v>-32.244275811552001</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>6293826</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB11">
-        <v>1</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>63</v>
-      </c>
-      <c r="BH11">
-        <v>1486587520</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>85</v>
-      </c>
-      <c r="B12" t="s">
-        <v>416</v>
-      </c>
-      <c r="C12" t="s">
-        <v>542</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>422</v>
-      </c>
-      <c r="F12" t="s">
-        <v>431</v>
-      </c>
-      <c r="G12" t="s">
-        <v>547</v>
-      </c>
-      <c r="H12" t="s">
-        <v>268</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" t="s">
-        <v>431</v>
-      </c>
-      <c r="N12" t="s">
-        <v>599</v>
-      </c>
-      <c r="O12" t="str">
-        <f>CONCATENATE(A12,".xlsx")</f>
-        <v>85.xlsx</v>
-      </c>
-      <c r="P12" t="s">
-        <v>423</v>
-      </c>
-      <c r="R12" t="s">
-        <v>415</v>
-      </c>
-      <c r="T12">
-        <v>459</v>
-      </c>
-      <c r="U12">
-        <v>44</v>
-      </c>
-      <c r="V12">
-        <v>415</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>44</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>1490920000000</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>1490920000000</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ12">
-        <v>2017</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>420</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>421</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP12">
-        <v>36.588718278866999</v>
-      </c>
-      <c r="AQ12">
-        <v>-121.76782041394</v>
-      </c>
-      <c r="AR12">
-        <v>37.896839999999997</v>
-      </c>
-      <c r="AS12">
-        <v>-119.62817</v>
-      </c>
-      <c r="AT12">
-        <v>-122.34007</v>
-      </c>
-      <c r="AU12">
-        <v>36.046019999999999</v>
-      </c>
-      <c r="AV12">
-        <v>210252</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>424</v>
-      </c>
-      <c r="AY12" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>426</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>427</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>428</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>429</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>430</v>
-      </c>
-      <c r="BH12">
-        <v>1491156975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>441</v>
-      </c>
-      <c r="C13" t="s">
-        <v>542</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G13" t="s">
-        <v>547</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" t="s">
-        <v>454</v>
-      </c>
-      <c r="M13" t="s">
-        <v>256</v>
-      </c>
-      <c r="N13" t="s">
-        <v>599</v>
-      </c>
-      <c r="O13" t="str">
-        <f>CONCATENATE(A13,".xlsx")</f>
-        <v>88.xlsx</v>
-      </c>
-      <c r="P13" t="s">
-        <v>447</v>
-      </c>
-      <c r="R13" t="s">
-        <v>440</v>
-      </c>
-      <c r="T13">
-        <v>736</v>
-      </c>
-      <c r="U13">
-        <v>76</v>
-      </c>
-      <c r="V13">
-        <v>660</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>76</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>1</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>443</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>1467760000000</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>1468280000000</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>444</v>
-      </c>
-      <c r="AJ13">
-        <v>2016</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>445</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>446</v>
-      </c>
-      <c r="AP13">
-        <v>-6.8168868441576</v>
-      </c>
-      <c r="AQ13">
-        <v>106.9309391413</v>
-      </c>
-      <c r="AR13">
-        <v>-6.7579361000000002</v>
-      </c>
-      <c r="AS13">
-        <v>106.9795944</v>
-      </c>
-      <c r="AT13">
-        <v>106.8714167</v>
-      </c>
-      <c r="AU13">
-        <v>-6.8606806000000002</v>
-      </c>
-      <c r="AV13">
-        <v>8475</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>248</v>
-      </c>
-      <c r="AY13" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>450</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>451</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>452</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>453</v>
-      </c>
-      <c r="BH13">
-        <v>1491157348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s">
-        <v>456</v>
-      </c>
-      <c r="C14" t="s">
-        <v>549</v>
-      </c>
-      <c r="D14" t="s">
-        <v>465</v>
-      </c>
-      <c r="E14" t="s">
-        <v>461</v>
-      </c>
-      <c r="F14" t="s">
-        <v>470</v>
-      </c>
-      <c r="G14" t="s">
-        <v>564</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" t="s">
-        <v>465</v>
-      </c>
-      <c r="L14" t="s">
-        <v>465</v>
-      </c>
-      <c r="M14" t="s">
-        <v>470</v>
-      </c>
-      <c r="N14" t="s">
-        <v>599</v>
-      </c>
-      <c r="O14" t="str">
-        <f>CONCATENATE(A14,".xlsx")</f>
-        <v>89.xlsx</v>
-      </c>
-      <c r="P14" t="s">
-        <v>462</v>
-      </c>
-      <c r="R14" t="s">
-        <v>455</v>
-      </c>
-      <c r="T14">
-        <v>84</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>84</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>458</v>
-      </c>
-      <c r="AG14" s="3">
-        <v>1465860000000</v>
-      </c>
-      <c r="AH14" s="3">
-        <v>1503790000000</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>20162017</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>460</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP14">
-        <v>52.200038999999997</v>
-      </c>
-      <c r="AQ14">
-        <v>0.13544887</v>
-      </c>
-      <c r="AR14">
-        <v>52.200038999999997</v>
-      </c>
-      <c r="AS14">
-        <v>0.13544887</v>
-      </c>
-      <c r="AT14">
-        <v>0.13544887</v>
-      </c>
-      <c r="AU14">
-        <v>52.200038999999997</v>
-      </c>
-      <c r="AV14">
-        <v>4</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>463</v>
-      </c>
-      <c r="AY14" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>466</v>
-      </c>
-      <c r="BB14">
-        <v>1</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>467</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>468</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>469</v>
-      </c>
-      <c r="BH14">
-        <v>1560473522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" t="s">
-        <v>542</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G15" t="s">
-        <v>547</v>
-      </c>
-      <c r="I15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" t="s">
-        <v>138</v>
-      </c>
-      <c r="N15" t="s">
-        <v>599</v>
-      </c>
-      <c r="O15" t="str">
-        <f>CONCATENATE(A15,".xlsx")</f>
-        <v>92.xlsx</v>
-      </c>
-      <c r="P15" t="s">
-        <v>130</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T15">
-        <v>1197</v>
-      </c>
-      <c r="U15">
-        <v>139</v>
-      </c>
-      <c r="V15">
-        <v>1058</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>139</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>-2208820000000</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>1104710000000</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP15">
-        <v>37.821729023682003</v>
-      </c>
-      <c r="AQ15">
-        <v>-119.54259554951</v>
-      </c>
-      <c r="AR15">
-        <v>40.87557778</v>
-      </c>
-      <c r="AS15">
-        <v>-116.23375277778</v>
-      </c>
-      <c r="AT15">
-        <v>-121.6768167</v>
-      </c>
-      <c r="AU15">
-        <v>33.340000000000003</v>
-      </c>
-      <c r="AV15">
-        <v>552614</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>134</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>136</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH15">
-        <v>1507869826</v>
-      </c>
-    </row>
-    <row r="16" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>542</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" t="s">
-        <v>547</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" t="s">
-        <v>119</v>
-      </c>
-      <c r="M16" t="s">
-        <v>120</v>
-      </c>
-      <c r="N16" t="s">
-        <v>599</v>
-      </c>
-      <c r="O16" t="str">
-        <f>CONCATENATE(A16,".xlsx")</f>
-        <v>93.xlsx</v>
-      </c>
-      <c r="P16" t="s">
-        <v>110</v>
-      </c>
-      <c r="R16" t="s">
-        <v>102</v>
-      </c>
-      <c r="T16">
-        <v>1034</v>
-      </c>
-      <c r="U16">
-        <v>70</v>
-      </c>
-      <c r="V16">
-        <v>964</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>70</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG16" s="3">
-        <v>-270432000000</v>
-      </c>
-      <c r="AH16" s="3">
-        <v>1305850000000</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>1.96119631964196E+195</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP16">
-        <v>9.8802132843328003</v>
-      </c>
-      <c r="AQ16">
-        <v>-83.941771940039004</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>363358</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY16" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB16">
-        <v>1</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>116</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>118</v>
-      </c>
-      <c r="BH16">
-        <v>1559263907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>94</v>
-      </c>
-      <c r="B17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" t="s">
-        <v>542</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" t="s">
-        <v>547</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" t="s">
-        <v>255</v>
-      </c>
-      <c r="M17" t="s">
-        <v>256</v>
-      </c>
-      <c r="N17" t="s">
-        <v>599</v>
-      </c>
-      <c r="O17" t="str">
-        <f>CONCATENATE(A17,".xlsx")</f>
-        <v>94.xlsx</v>
-      </c>
-      <c r="P17" t="s">
-        <v>247</v>
-      </c>
-      <c r="R17" t="s">
-        <v>240</v>
-      </c>
-      <c r="T17">
-        <v>1894</v>
-      </c>
-      <c r="U17">
-        <v>58</v>
-      </c>
-      <c r="V17">
-        <v>1836</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>58</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG17" s="3">
-        <v>-2429830000000</v>
-      </c>
-      <c r="AH17" s="3">
-        <v>1420240000000</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP17">
-        <v>38.122422092925</v>
-      </c>
-      <c r="AQ17">
-        <v>-121.73130237381</v>
-      </c>
-      <c r="AR17">
-        <v>41.950606999999998</v>
-      </c>
-      <c r="AS17">
-        <v>-116.62099000000001</v>
-      </c>
-      <c r="AT17">
-        <v>-124.237831</v>
-      </c>
-      <c r="AU17">
-        <v>32.715277999999998</v>
-      </c>
-      <c r="AV17">
-        <v>734608</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>248</v>
-      </c>
-      <c r="AY17" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="AZ17" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>251</v>
-      </c>
-      <c r="BB17">
-        <v>1</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>252</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>253</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>254</v>
-      </c>
-      <c r="BH17">
-        <v>1516219195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>479</v>
-      </c>
-      <c r="C18" t="s">
-        <v>550</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F18" t="s">
-        <v>556</v>
-      </c>
-      <c r="G18" t="s">
-        <v>547</v>
-      </c>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" t="s">
-        <v>488</v>
-      </c>
-      <c r="L18" t="s">
-        <v>154</v>
-      </c>
-      <c r="M18" t="s">
-        <v>155</v>
-      </c>
-      <c r="N18" t="s">
-        <v>599</v>
-      </c>
-      <c r="O18" t="str">
-        <f>CONCATENATE(A18,".xlsx")</f>
-        <v>96.xlsx</v>
-      </c>
-      <c r="P18" t="s">
-        <v>486</v>
-      </c>
-      <c r="R18" t="s">
-        <v>478</v>
-      </c>
-      <c r="S18" t="s">
-        <v>480</v>
-      </c>
-      <c r="T18">
-        <v>7913</v>
-      </c>
-      <c r="U18">
-        <v>863</v>
-      </c>
-      <c r="V18">
-        <v>7050</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>863</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>481</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>482</v>
-      </c>
-      <c r="AG18" s="3">
-        <v>-2587510000000</v>
-      </c>
-      <c r="AH18" s="3">
-        <v>1397290000000</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>483</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>484</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>485</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP18">
-        <v>34.981829243638998</v>
-      </c>
-      <c r="AQ18">
-        <v>-112.33832645547</v>
-      </c>
-      <c r="AR18">
-        <v>59.553377640000001</v>
-      </c>
-      <c r="AS18">
-        <v>-87.621440000000007</v>
-      </c>
-      <c r="AT18">
-        <v>-133.79147739999999</v>
-      </c>
-      <c r="AU18">
-        <v>14.96002</v>
-      </c>
-      <c r="AV18">
-        <v>3144127</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY18" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>489</v>
-      </c>
-      <c r="BB18">
-        <v>1</v>
-      </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>490</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>491</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>492</v>
-      </c>
-      <c r="BH18">
-        <v>1534825024</v>
-      </c>
-    </row>
-    <row r="19" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>325</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>604</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>431</v>
+      </c>
+      <c r="L19" t="s">
+        <v>547</v>
+      </c>
+      <c r="M19" t="s">
         <v>542</v>
       </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="N19" t="s">
         <v>326</v>
       </c>
-      <c r="F19" t="s">
-        <v>431</v>
-      </c>
-      <c r="G19" t="s">
-        <v>547</v>
-      </c>
-      <c r="I19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" t="s">
-        <v>605</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>324</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
       <c r="V19">
         <v>0</v>
       </c>
@@ -5307,25 +5482,25 @@
       <c r="Y19">
         <v>0</v>
       </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
       <c r="AA19">
         <v>0</v>
       </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
       <c r="AC19">
         <v>0</v>
       </c>
-      <c r="AG19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3">
         <v>0</v>
       </c>
       <c r="AR19">
@@ -5340,74 +5515,74 @@
       <c r="AU19">
         <v>0</v>
       </c>
-      <c r="AX19" s="1" t="s">
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AY19" s="5" t="s">
+      <c r="BA19" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BC19" t="s">
         <v>164</v>
       </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="s">
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="s">
         <v>329</v>
       </c>
-      <c r="BF19" t="s">
+      <c r="BH19" t="s">
         <v>330</v>
       </c>
-      <c r="BG19" t="s">
+      <c r="BI19" t="s">
         <v>331</v>
       </c>
-      <c r="BH19">
+      <c r="BJ19">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="20" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>258</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" t="s">
+        <v>261</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>431</v>
+      </c>
+      <c r="L20" t="s">
+        <v>547</v>
+      </c>
+      <c r="M20" t="s">
         <v>542</v>
       </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="N20" t="s">
         <v>259</v>
       </c>
-      <c r="F20" t="s">
-        <v>431</v>
-      </c>
-      <c r="G20" t="s">
-        <v>547</v>
-      </c>
-      <c r="I20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" t="s">
-        <v>261</v>
-      </c>
-      <c r="K20" t="s">
-        <v>262</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>257</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
       <c r="V20">
         <v>0</v>
       </c>
@@ -5420,25 +5595,25 @@
       <c r="Y20">
         <v>0</v>
       </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
       <c r="AA20">
         <v>0</v>
       </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
       <c r="AC20">
         <v>0</v>
       </c>
-      <c r="AG20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="3">
         <v>0</v>
       </c>
       <c r="AR20">
@@ -5453,74 +5628,74 @@
       <c r="AU20">
         <v>0</v>
       </c>
-      <c r="AX20" s="1" t="s">
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AY20" s="5" t="s">
+      <c r="BA20" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="BA20" t="s">
+      <c r="BC20" t="s">
         <v>164</v>
       </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="s">
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="s">
         <v>263</v>
       </c>
-      <c r="BF20" t="s">
+      <c r="BH20" t="s">
         <v>264</v>
       </c>
-      <c r="BG20" t="s">
+      <c r="BI20" t="s">
         <v>265</v>
       </c>
-      <c r="BH20">
+      <c r="BJ20">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="21" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>267</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
+        <v>431</v>
+      </c>
+      <c r="L21" t="s">
+        <v>547</v>
+      </c>
+      <c r="M21" t="s">
         <v>542</v>
       </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="N21" t="s">
         <v>269</v>
       </c>
-      <c r="F21" t="s">
-        <v>431</v>
-      </c>
-      <c r="G21" t="s">
-        <v>547</v>
-      </c>
-      <c r="H21" t="s">
-        <v>268</v>
-      </c>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" t="s">
-        <v>78</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="T21" t="s">
         <v>266</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
       <c r="V21">
         <v>0</v>
       </c>
@@ -5533,25 +5708,25 @@
       <c r="Y21">
         <v>0</v>
       </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
       <c r="AA21">
         <v>0</v>
       </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
       <c r="AC21">
         <v>0</v>
       </c>
-      <c r="AG21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3">
         <v>0</v>
       </c>
       <c r="AR21">
@@ -5566,77 +5741,77 @@
       <c r="AU21">
         <v>0</v>
       </c>
-      <c r="AX21" s="1" t="s">
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AY21" s="5" t="s">
+      <c r="BA21" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BC21" t="s">
         <v>164</v>
       </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="s">
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="s">
         <v>271</v>
       </c>
-      <c r="BF21" t="s">
+      <c r="BH21" t="s">
         <v>272</v>
       </c>
-      <c r="BG21" t="s">
+      <c r="BI21" t="s">
         <v>273</v>
       </c>
-      <c r="BH21">
+      <c r="BJ21">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="22" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>157</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s">
+        <v>431</v>
+      </c>
+      <c r="L22" t="s">
+        <v>547</v>
+      </c>
+      <c r="M22" t="s">
         <v>542</v>
       </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="N22" t="s">
         <v>160</v>
       </c>
-      <c r="F22" t="s">
-        <v>431</v>
-      </c>
-      <c r="G22" t="s">
-        <v>547</v>
-      </c>
-      <c r="H22" t="s">
-        <v>159</v>
-      </c>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" t="s">
-        <v>163</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>156</v>
       </c>
-      <c r="S22" t="s">
+      <c r="U22" t="s">
         <v>158</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
       <c r="V22">
         <v>0</v>
       </c>
@@ -5649,25 +5824,25 @@
       <c r="Y22">
         <v>0</v>
       </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
       <c r="AA22">
         <v>0</v>
       </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
       <c r="AC22">
         <v>0</v>
       </c>
-      <c r="AG22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3">
         <v>0</v>
       </c>
       <c r="AR22">
@@ -5682,68 +5857,68 @@
       <c r="AU22">
         <v>0</v>
       </c>
-      <c r="AX22" s="1" t="s">
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AY22" s="5" t="s">
+      <c r="BA22" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BC22" t="s">
         <v>164</v>
       </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="s">
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="s">
         <v>165</v>
       </c>
-      <c r="BF22" t="s">
+      <c r="BH22" t="s">
         <v>166</v>
       </c>
-      <c r="BG22" t="s">
+      <c r="BI22" t="s">
         <v>167</v>
       </c>
-      <c r="BH22">
+      <c r="BJ22">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="23" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>333</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L23" t="s">
         <v>547</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="M23" t="s">
         <v>547</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" t="s">
-        <v>78</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="T23" t="s">
         <v>332</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
       <c r="V23">
         <v>0</v>
       </c>
@@ -5756,30 +5931,30 @@
       <c r="Y23">
         <v>0</v>
       </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
       <c r="AA23">
         <v>0</v>
       </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
       <c r="AC23">
         <v>0</v>
       </c>
-      <c r="AG23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="s">
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="s">
         <v>334</v>
       </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
       <c r="AR23">
         <v>0</v>
       </c>
@@ -5792,77 +5967,77 @@
       <c r="AU23">
         <v>0</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="s">
         <v>248</v>
       </c>
-      <c r="AY23" s="5" t="s">
+      <c r="BA23" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AZ23" s="1" t="s">
+      <c r="BB23" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BC23" t="s">
         <v>164</v>
       </c>
-      <c r="BB23">
-        <v>0</v>
-      </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="s">
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="s">
         <v>337</v>
       </c>
-      <c r="BF23" t="s">
+      <c r="BH23" t="s">
         <v>338</v>
       </c>
-      <c r="BG23" t="s">
+      <c r="BI23" t="s">
         <v>339</v>
       </c>
-      <c r="BH23">
+      <c r="BJ23">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="24" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>341</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H24" t="s">
+        <v>572</v>
+      </c>
+      <c r="I24" t="s">
+        <v>350</v>
+      </c>
+      <c r="J24" t="s">
+        <v>349</v>
+      </c>
+      <c r="K24" t="s">
+        <v>350</v>
+      </c>
+      <c r="L24" t="s">
+        <v>547</v>
+      </c>
+      <c r="M24" t="s">
         <v>542</v>
       </c>
-      <c r="D24" t="s">
-        <v>572</v>
-      </c>
-      <c r="F24" t="s">
-        <v>350</v>
-      </c>
-      <c r="G24" t="s">
-        <v>547</v>
-      </c>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" t="s">
-        <v>345</v>
-      </c>
-      <c r="L24" t="s">
-        <v>349</v>
-      </c>
-      <c r="M24" t="s">
-        <v>350</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>340</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
         <v>0</v>
       </c>
@@ -5875,25 +6050,25 @@
       <c r="Y24">
         <v>0</v>
       </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
       <c r="AA24">
         <v>0</v>
       </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
       <c r="AC24">
         <v>0</v>
       </c>
-      <c r="AG24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="3">
         <v>0</v>
       </c>
       <c r="AR24">
@@ -5908,71 +6083,71 @@
       <c r="AU24">
         <v>0</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="s">
         <v>342</v>
       </c>
-      <c r="AY24" s="5" t="s">
+      <c r="BA24" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BB24" t="s">
         <v>344</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BC24" t="s">
         <v>164</v>
       </c>
-      <c r="BB24">
+      <c r="BD24">
         <v>1</v>
       </c>
-      <c r="BC24">
-        <v>0</v>
-      </c>
-      <c r="BE24" t="s">
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="s">
         <v>346</v>
       </c>
-      <c r="BF24" t="s">
+      <c r="BH24" t="s">
         <v>347</v>
       </c>
-      <c r="BG24" t="s">
+      <c r="BI24" t="s">
         <v>348</v>
       </c>
-      <c r="BH24">
+      <c r="BJ24">
         <v>1507151378</v>
       </c>
     </row>
-    <row r="25" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>352</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>356</v>
+      </c>
+      <c r="H25" t="s">
+        <v>356</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L25" t="s">
+        <v>547</v>
+      </c>
+      <c r="M25" t="s">
         <v>542</v>
       </c>
-      <c r="D25" t="s">
-        <v>356</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="G25" t="s">
-        <v>547</v>
-      </c>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" t="s">
-        <v>356</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="T25" t="s">
         <v>351</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
       <c r="V25">
         <v>0</v>
       </c>
@@ -5985,116 +6160,116 @@
       <c r="Y25">
         <v>0</v>
       </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
       <c r="AA25">
         <v>0</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
       <c r="AC25">
         <v>0</v>
       </c>
-      <c r="AG25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="s">
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>353</v>
       </c>
-      <c r="AP25">
+      <c r="AR25">
         <v>37.871095699999998</v>
       </c>
-      <c r="AQ25">
+      <c r="AS25">
         <v>-122.26218040000001</v>
       </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
       <c r="AT25">
         <v>0</v>
       </c>
       <c r="AU25">
         <v>0</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="s">
         <v>354</v>
       </c>
-      <c r="AY25" s="5" t="s">
+      <c r="BA25" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BC25" t="s">
         <v>164</v>
       </c>
-      <c r="BB25">
-        <v>0</v>
-      </c>
-      <c r="BC25">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="s">
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="s">
         <v>357</v>
       </c>
-      <c r="BF25" t="s">
+      <c r="BH25" t="s">
         <v>358</v>
       </c>
-      <c r="BG25" t="s">
+      <c r="BI25" t="s">
         <v>359</v>
       </c>
-      <c r="BH25">
+      <c r="BJ25">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="26" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>67</v>
       </c>
       <c r="B26" t="s">
         <v>370</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" t="s">
+        <v>373</v>
+      </c>
+      <c r="H26" t="s">
+        <v>373</v>
+      </c>
+      <c r="I26" t="s">
+        <v>558</v>
+      </c>
+      <c r="J26" t="s">
+        <v>377</v>
+      </c>
+      <c r="K26" t="s">
+        <v>378</v>
+      </c>
+      <c r="L26" t="s">
+        <v>562</v>
+      </c>
+      <c r="M26" t="s">
         <v>544</v>
       </c>
-      <c r="D26" t="s">
-        <v>373</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="N26" t="s">
         <v>371</v>
       </c>
-      <c r="F26" t="s">
-        <v>558</v>
-      </c>
-      <c r="G26" t="s">
-        <v>562</v>
-      </c>
-      <c r="I26" t="s">
-        <v>171</v>
-      </c>
-      <c r="J26" t="s">
-        <v>373</v>
-      </c>
-      <c r="L26" t="s">
-        <v>377</v>
-      </c>
-      <c r="M26" t="s">
-        <v>378</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="T26" t="s">
         <v>369</v>
       </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>170</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
       <c r="V26">
         <v>0</v>
       </c>
@@ -6107,25 +6282,25 @@
       <c r="Y26">
         <v>0</v>
       </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
       <c r="AA26">
         <v>0</v>
       </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
       <c r="AC26">
         <v>0</v>
       </c>
-      <c r="AG26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="3">
         <v>0</v>
       </c>
       <c r="AR26">
@@ -6140,71 +6315,71 @@
       <c r="AU26">
         <v>0</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="s">
         <v>172</v>
       </c>
-      <c r="AY26" s="5" t="s">
+      <c r="BA26" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BC26" t="s">
         <v>164</v>
       </c>
-      <c r="BB26">
-        <v>0</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BE26" t="s">
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="s">
         <v>374</v>
       </c>
-      <c r="BF26" t="s">
+      <c r="BH26" t="s">
         <v>375</v>
       </c>
-      <c r="BG26" t="s">
+      <c r="BI26" t="s">
         <v>376</v>
       </c>
-      <c r="BH26">
+      <c r="BJ26">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>380</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" t="s">
+        <v>382</v>
+      </c>
+      <c r="H27" t="s">
+        <v>377</v>
+      </c>
+      <c r="I27" t="s">
+        <v>378</v>
+      </c>
+      <c r="L27" t="s">
+        <v>562</v>
+      </c>
+      <c r="M27" t="s">
         <v>544</v>
       </c>
-      <c r="D27" t="s">
-        <v>377</v>
-      </c>
-      <c r="F27" t="s">
-        <v>378</v>
-      </c>
-      <c r="G27" t="s">
-        <v>562</v>
-      </c>
-      <c r="I27" t="s">
-        <v>171</v>
-      </c>
-      <c r="J27" t="s">
-        <v>382</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="T27" t="s">
         <v>379</v>
       </c>
-      <c r="S27" t="s">
+      <c r="U27" t="s">
         <v>170</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
       <c r="V27">
         <v>0</v>
       </c>
@@ -6217,25 +6392,25 @@
       <c r="Y27">
         <v>0</v>
       </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
       <c r="AA27">
         <v>0</v>
       </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
       <c r="AC27">
         <v>0</v>
       </c>
-      <c r="AG27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="3">
         <v>0</v>
       </c>
       <c r="AR27">
@@ -6250,71 +6425,71 @@
       <c r="AU27">
         <v>0</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="s">
         <v>172</v>
       </c>
-      <c r="AY27" s="5" t="s">
+      <c r="BA27" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="BA27" t="s">
+      <c r="BC27" t="s">
         <v>164</v>
       </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BE27" t="s">
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="s">
         <v>383</v>
       </c>
-      <c r="BF27" t="s">
+      <c r="BH27" t="s">
         <v>384</v>
       </c>
-      <c r="BG27" t="s">
+      <c r="BI27" t="s">
         <v>385</v>
       </c>
-      <c r="BH27">
+      <c r="BJ27">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>69</v>
       </c>
       <c r="B28" t="s">
         <v>169</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" t="s">
+        <v>377</v>
+      </c>
+      <c r="I28" t="s">
+        <v>378</v>
+      </c>
+      <c r="L28" t="s">
+        <v>562</v>
+      </c>
+      <c r="M28" t="s">
         <v>544</v>
       </c>
-      <c r="D28" t="s">
-        <v>377</v>
-      </c>
-      <c r="F28" t="s">
-        <v>378</v>
-      </c>
-      <c r="G28" t="s">
-        <v>562</v>
-      </c>
-      <c r="I28" t="s">
-        <v>171</v>
-      </c>
-      <c r="J28" t="s">
-        <v>174</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="T28" t="s">
         <v>168</v>
       </c>
-      <c r="S28" t="s">
+      <c r="U28" t="s">
         <v>170</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
       <c r="V28">
         <v>0</v>
       </c>
@@ -6327,25 +6502,25 @@
       <c r="Y28">
         <v>0</v>
       </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
       <c r="AA28">
         <v>0</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
       <c r="AC28">
         <v>0</v>
       </c>
-      <c r="AG28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3">
         <v>0</v>
       </c>
       <c r="AR28">
@@ -6360,71 +6535,71 @@
       <c r="AU28">
         <v>0</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="s">
         <v>172</v>
       </c>
-      <c r="AY28" s="5" t="s">
+      <c r="BA28" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BC28" t="s">
         <v>164</v>
       </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BE28" t="s">
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="s">
         <v>175</v>
       </c>
-      <c r="BF28" t="s">
+      <c r="BH28" t="s">
         <v>176</v>
       </c>
-      <c r="BG28" t="s">
+      <c r="BI28" t="s">
         <v>177</v>
       </c>
-      <c r="BH28">
+      <c r="BJ28">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>179</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" t="s">
+        <v>377</v>
+      </c>
+      <c r="I29" t="s">
+        <v>378</v>
+      </c>
+      <c r="L29" t="s">
+        <v>562</v>
+      </c>
+      <c r="M29" t="s">
         <v>544</v>
       </c>
-      <c r="D29" t="s">
-        <v>377</v>
-      </c>
-      <c r="F29" t="s">
-        <v>378</v>
-      </c>
-      <c r="G29" t="s">
-        <v>562</v>
-      </c>
-      <c r="I29" t="s">
-        <v>171</v>
-      </c>
-      <c r="J29" t="s">
-        <v>181</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="T29" t="s">
         <v>178</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
         <v>170</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
       <c r="V29">
         <v>0</v>
       </c>
@@ -6437,25 +6612,25 @@
       <c r="Y29">
         <v>0</v>
       </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
       <c r="AA29">
         <v>0</v>
       </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
       <c r="AC29">
         <v>0</v>
       </c>
-      <c r="AG29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="3">
         <v>0</v>
       </c>
       <c r="AR29">
@@ -6470,68 +6645,68 @@
       <c r="AU29">
         <v>0</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="s">
         <v>172</v>
       </c>
-      <c r="AY29" s="5" t="s">
+      <c r="BA29" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BC29" t="s">
         <v>164</v>
       </c>
-      <c r="BB29">
-        <v>0</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
-      <c r="BE29" t="s">
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BG29" t="s">
         <v>182</v>
       </c>
-      <c r="BF29" t="s">
+      <c r="BH29" t="s">
         <v>183</v>
       </c>
-      <c r="BG29" t="s">
+      <c r="BI29" t="s">
         <v>184</v>
       </c>
-      <c r="BH29">
+      <c r="BJ29">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>72</v>
       </c>
       <c r="B30" t="s">
         <v>186</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" t="s">
+        <v>377</v>
+      </c>
+      <c r="I30" t="s">
+        <v>378</v>
+      </c>
+      <c r="L30" t="s">
+        <v>562</v>
+      </c>
+      <c r="M30" t="s">
         <v>544</v>
       </c>
-      <c r="D30" t="s">
-        <v>377</v>
-      </c>
-      <c r="F30" t="s">
-        <v>378</v>
-      </c>
-      <c r="G30" t="s">
-        <v>562</v>
-      </c>
-      <c r="I30" t="s">
-        <v>171</v>
-      </c>
-      <c r="J30" t="s">
-        <v>188</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="T30" t="s">
         <v>185</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
       <c r="V30">
         <v>0</v>
       </c>
@@ -6544,25 +6719,25 @@
       <c r="Y30">
         <v>0</v>
       </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
       <c r="AA30">
         <v>0</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
       <c r="AC30">
         <v>0</v>
       </c>
-      <c r="AG30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="3">
         <v>0</v>
       </c>
       <c r="AR30">
@@ -6577,71 +6752,71 @@
       <c r="AU30">
         <v>0</v>
       </c>
-      <c r="AX30" t="s">
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="s">
         <v>172</v>
       </c>
-      <c r="AY30" s="5" t="s">
+      <c r="BA30" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="BA30" t="s">
+      <c r="BC30" t="s">
         <v>164</v>
       </c>
-      <c r="BB30">
-        <v>0</v>
-      </c>
-      <c r="BC30">
-        <v>0</v>
-      </c>
-      <c r="BE30" t="s">
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BG30" t="s">
         <v>189</v>
       </c>
-      <c r="BF30" t="s">
+      <c r="BH30" t="s">
         <v>190</v>
       </c>
-      <c r="BG30" t="s">
+      <c r="BI30" t="s">
         <v>191</v>
       </c>
-      <c r="BH30">
+      <c r="BJ30">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="31" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>193</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I31" t="s">
+        <v>378</v>
+      </c>
+      <c r="L31" t="s">
+        <v>562</v>
+      </c>
+      <c r="M31" t="s">
         <v>544</v>
       </c>
-      <c r="D31" t="s">
-        <v>377</v>
-      </c>
-      <c r="F31" t="s">
-        <v>378</v>
-      </c>
-      <c r="G31" t="s">
-        <v>562</v>
-      </c>
-      <c r="I31" t="s">
-        <v>171</v>
-      </c>
-      <c r="J31" t="s">
-        <v>195</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="T31" t="s">
         <v>192</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>170</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
       <c r="V31">
         <v>0</v>
       </c>
@@ -6654,25 +6829,25 @@
       <c r="Y31">
         <v>0</v>
       </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
       <c r="AA31">
         <v>0</v>
       </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
       <c r="AC31">
         <v>0</v>
       </c>
-      <c r="AG31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="3">
         <v>0</v>
       </c>
       <c r="AR31">
@@ -6687,71 +6862,71 @@
       <c r="AU31">
         <v>0</v>
       </c>
-      <c r="AX31" t="s">
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="s">
         <v>172</v>
       </c>
-      <c r="AY31" s="5" t="s">
+      <c r="BA31" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="BA31" t="s">
+      <c r="BC31" t="s">
         <v>164</v>
       </c>
-      <c r="BB31">
-        <v>0</v>
-      </c>
-      <c r="BC31">
-        <v>0</v>
-      </c>
-      <c r="BE31" t="s">
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="s">
         <v>196</v>
       </c>
-      <c r="BF31" t="s">
+      <c r="BH31" t="s">
         <v>197</v>
       </c>
-      <c r="BG31" s="1" t="s">
+      <c r="BI31" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BH31">
+      <c r="BJ31">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="32" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>75</v>
       </c>
       <c r="B32" t="s">
         <v>200</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" t="s">
+        <v>377</v>
+      </c>
+      <c r="I32" t="s">
+        <v>378</v>
+      </c>
+      <c r="L32" t="s">
+        <v>562</v>
+      </c>
+      <c r="M32" t="s">
         <v>544</v>
       </c>
-      <c r="D32" t="s">
-        <v>377</v>
-      </c>
-      <c r="F32" t="s">
-        <v>378</v>
-      </c>
-      <c r="G32" t="s">
-        <v>562</v>
-      </c>
-      <c r="I32" t="s">
-        <v>171</v>
-      </c>
-      <c r="J32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="T32" t="s">
         <v>199</v>
       </c>
-      <c r="S32" t="s">
+      <c r="U32" t="s">
         <v>170</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
       <c r="V32">
         <v>0</v>
       </c>
@@ -6764,25 +6939,25 @@
       <c r="Y32">
         <v>0</v>
       </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
       <c r="AA32">
         <v>0</v>
       </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
       <c r="AC32">
         <v>0</v>
       </c>
-      <c r="AG32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="3">
         <v>0</v>
       </c>
       <c r="AR32">
@@ -6797,71 +6972,71 @@
       <c r="AU32">
         <v>0</v>
       </c>
-      <c r="AX32" t="s">
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="s">
         <v>172</v>
       </c>
-      <c r="AY32" s="5" t="s">
+      <c r="BA32" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="BA32" t="s">
+      <c r="BC32" t="s">
         <v>164</v>
       </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BE32" t="s">
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BG32" t="s">
         <v>203</v>
       </c>
-      <c r="BF32" t="s">
+      <c r="BH32" t="s">
         <v>204</v>
       </c>
-      <c r="BG32" t="s">
+      <c r="BI32" t="s">
         <v>205</v>
       </c>
-      <c r="BH32">
+      <c r="BJ32">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="33" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>77</v>
       </c>
       <c r="B33" t="s">
         <v>207</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" t="s">
+        <v>377</v>
+      </c>
+      <c r="I33" t="s">
+        <v>378</v>
+      </c>
+      <c r="L33" t="s">
+        <v>562</v>
+      </c>
+      <c r="M33" t="s">
         <v>544</v>
       </c>
-      <c r="D33" t="s">
-        <v>377</v>
-      </c>
-      <c r="F33" t="s">
-        <v>378</v>
-      </c>
-      <c r="G33" t="s">
-        <v>562</v>
-      </c>
-      <c r="I33" t="s">
-        <v>171</v>
-      </c>
-      <c r="J33" t="s">
-        <v>209</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="T33" t="s">
         <v>206</v>
       </c>
-      <c r="S33" t="s">
+      <c r="U33" t="s">
         <v>170</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
       <c r="V33">
         <v>0</v>
       </c>
@@ -6874,25 +7049,25 @@
       <c r="Y33">
         <v>0</v>
       </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
       <c r="AA33">
         <v>0</v>
       </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
       <c r="AC33">
         <v>0</v>
       </c>
-      <c r="AG33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33">
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="3">
         <v>0</v>
       </c>
       <c r="AR33">
@@ -6907,71 +7082,71 @@
       <c r="AU33">
         <v>0</v>
       </c>
-      <c r="AX33" t="s">
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="s">
         <v>172</v>
       </c>
-      <c r="AY33" s="5" t="s">
+      <c r="BA33" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="BA33" t="s">
+      <c r="BC33" t="s">
         <v>164</v>
       </c>
-      <c r="BB33">
-        <v>0</v>
-      </c>
-      <c r="BC33">
-        <v>0</v>
-      </c>
-      <c r="BE33" t="s">
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BG33" t="s">
         <v>210</v>
       </c>
-      <c r="BF33" t="s">
+      <c r="BH33" t="s">
         <v>211</v>
       </c>
-      <c r="BG33" t="s">
+      <c r="BI33" t="s">
         <v>212</v>
       </c>
-      <c r="BH33">
+      <c r="BJ33">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="34" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>78</v>
       </c>
       <c r="B34" t="s">
         <v>214</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" t="s">
+        <v>377</v>
+      </c>
+      <c r="I34" t="s">
+        <v>378</v>
+      </c>
+      <c r="L34" t="s">
+        <v>562</v>
+      </c>
+      <c r="M34" t="s">
         <v>544</v>
       </c>
-      <c r="D34" t="s">
-        <v>377</v>
-      </c>
-      <c r="F34" t="s">
-        <v>378</v>
-      </c>
-      <c r="G34" t="s">
-        <v>562</v>
-      </c>
-      <c r="I34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J34" t="s">
-        <v>216</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="T34" t="s">
         <v>213</v>
       </c>
-      <c r="S34" t="s">
+      <c r="U34" t="s">
         <v>170</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
       <c r="V34">
         <v>0</v>
       </c>
@@ -6984,25 +7159,25 @@
       <c r="Y34">
         <v>0</v>
       </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
       <c r="AA34">
         <v>0</v>
       </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
       <c r="AC34">
         <v>0</v>
       </c>
-      <c r="AG34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
-      <c r="AQ34">
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="3">
         <v>0</v>
       </c>
       <c r="AR34">
@@ -7017,71 +7192,71 @@
       <c r="AU34">
         <v>0</v>
       </c>
-      <c r="AX34" t="s">
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="s">
         <v>172</v>
       </c>
-      <c r="AY34" s="5" t="s">
+      <c r="BA34" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="BA34" t="s">
+      <c r="BC34" t="s">
         <v>164</v>
       </c>
-      <c r="BB34">
-        <v>0</v>
-      </c>
-      <c r="BC34">
-        <v>0</v>
-      </c>
-      <c r="BE34" t="s">
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BG34" t="s">
         <v>217</v>
       </c>
-      <c r="BF34" t="s">
+      <c r="BH34" t="s">
         <v>218</v>
       </c>
-      <c r="BG34" t="s">
+      <c r="BI34" t="s">
         <v>219</v>
       </c>
-      <c r="BH34">
+      <c r="BJ34">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="35" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>79</v>
       </c>
       <c r="B35" t="s">
         <v>221</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" t="s">
+        <v>223</v>
+      </c>
+      <c r="H35" t="s">
+        <v>377</v>
+      </c>
+      <c r="I35" t="s">
+        <v>378</v>
+      </c>
+      <c r="L35" t="s">
+        <v>562</v>
+      </c>
+      <c r="M35" t="s">
         <v>544</v>
       </c>
-      <c r="D35" t="s">
-        <v>377</v>
-      </c>
-      <c r="F35" t="s">
-        <v>378</v>
-      </c>
-      <c r="G35" t="s">
-        <v>562</v>
-      </c>
-      <c r="I35" t="s">
-        <v>171</v>
-      </c>
-      <c r="J35" t="s">
-        <v>223</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="T35" t="s">
         <v>220</v>
       </c>
-      <c r="S35" t="s">
+      <c r="U35" t="s">
         <v>170</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
       <c r="V35">
         <v>0</v>
       </c>
@@ -7094,25 +7269,25 @@
       <c r="Y35">
         <v>0</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
       <c r="AA35">
         <v>0</v>
       </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
       <c r="AC35">
         <v>0</v>
       </c>
-      <c r="AG35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35">
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="3">
         <v>0</v>
       </c>
       <c r="AR35">
@@ -7127,71 +7302,71 @@
       <c r="AU35">
         <v>0</v>
       </c>
-      <c r="AX35" t="s">
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="s">
         <v>172</v>
       </c>
-      <c r="AY35" s="5" t="s">
+      <c r="BA35" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="BA35" t="s">
+      <c r="BC35" t="s">
         <v>164</v>
       </c>
-      <c r="BB35">
-        <v>0</v>
-      </c>
-      <c r="BC35">
-        <v>0</v>
-      </c>
-      <c r="BE35" t="s">
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BG35" t="s">
         <v>224</v>
       </c>
-      <c r="BF35" t="s">
+      <c r="BH35" t="s">
         <v>225</v>
       </c>
-      <c r="BG35" t="s">
+      <c r="BI35" t="s">
         <v>226</v>
       </c>
-      <c r="BH35">
+      <c r="BJ35">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="36" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>80</v>
       </c>
       <c r="B36" t="s">
         <v>228</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" t="s">
+        <v>209</v>
+      </c>
+      <c r="H36" t="s">
+        <v>377</v>
+      </c>
+      <c r="I36" t="s">
+        <v>378</v>
+      </c>
+      <c r="L36" t="s">
+        <v>562</v>
+      </c>
+      <c r="M36" t="s">
         <v>544</v>
       </c>
-      <c r="D36" t="s">
-        <v>377</v>
-      </c>
-      <c r="F36" t="s">
-        <v>378</v>
-      </c>
-      <c r="G36" t="s">
-        <v>562</v>
-      </c>
-      <c r="I36" t="s">
-        <v>171</v>
-      </c>
-      <c r="J36" t="s">
-        <v>209</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="T36" t="s">
         <v>227</v>
       </c>
-      <c r="S36" t="s">
+      <c r="U36" t="s">
         <v>170</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
       <c r="V36">
         <v>0</v>
       </c>
@@ -7204,25 +7379,25 @@
       <c r="Y36">
         <v>0</v>
       </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
       <c r="AA36">
         <v>0</v>
       </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
       <c r="AC36">
         <v>0</v>
       </c>
-      <c r="AG36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="3">
         <v>0</v>
       </c>
       <c r="AR36">
@@ -7237,71 +7412,71 @@
       <c r="AU36">
         <v>0</v>
       </c>
-      <c r="AX36" t="s">
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="s">
         <v>172</v>
       </c>
-      <c r="AY36" s="5" t="s">
+      <c r="BA36" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="BA36" t="s">
+      <c r="BC36" t="s">
         <v>164</v>
       </c>
-      <c r="BB36">
-        <v>0</v>
-      </c>
-      <c r="BC36">
-        <v>0</v>
-      </c>
-      <c r="BE36" t="s">
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BG36" t="s">
         <v>230</v>
       </c>
-      <c r="BF36" t="s">
+      <c r="BH36" t="s">
         <v>231</v>
       </c>
-      <c r="BG36" t="s">
+      <c r="BI36" t="s">
         <v>232</v>
       </c>
-      <c r="BH36">
+      <c r="BJ36">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="37" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>81</v>
       </c>
       <c r="B37" t="s">
         <v>234</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" t="s">
+        <v>377</v>
+      </c>
+      <c r="I37" t="s">
+        <v>378</v>
+      </c>
+      <c r="L37" t="s">
+        <v>562</v>
+      </c>
+      <c r="M37" t="s">
         <v>544</v>
       </c>
-      <c r="D37" t="s">
-        <v>377</v>
-      </c>
-      <c r="F37" t="s">
-        <v>378</v>
-      </c>
-      <c r="G37" t="s">
-        <v>562</v>
-      </c>
-      <c r="I37" t="s">
-        <v>171</v>
-      </c>
-      <c r="J37" t="s">
-        <v>236</v>
-      </c>
-      <c r="R37" t="s">
+      <c r="T37" t="s">
         <v>233</v>
       </c>
-      <c r="S37" t="s">
+      <c r="U37" t="s">
         <v>170</v>
       </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
       <c r="V37">
         <v>0</v>
       </c>
@@ -7314,25 +7489,25 @@
       <c r="Y37">
         <v>0</v>
       </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
       <c r="AA37">
         <v>0</v>
       </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
       <c r="AC37">
         <v>0</v>
       </c>
-      <c r="AG37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37">
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="3">
         <v>0</v>
       </c>
       <c r="AR37">
@@ -7347,77 +7522,77 @@
       <c r="AU37">
         <v>0</v>
       </c>
-      <c r="AX37" t="s">
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="s">
         <v>172</v>
       </c>
-      <c r="AY37" s="5" t="s">
+      <c r="BA37" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="BA37" t="s">
+      <c r="BC37" t="s">
         <v>164</v>
       </c>
-      <c r="BB37">
-        <v>0</v>
-      </c>
-      <c r="BC37">
-        <v>0</v>
-      </c>
-      <c r="BE37" t="s">
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BG37" t="s">
         <v>237</v>
       </c>
-      <c r="BF37" t="s">
+      <c r="BH37" t="s">
         <v>238</v>
       </c>
-      <c r="BG37" t="s">
+      <c r="BI37" t="s">
         <v>239</v>
       </c>
-      <c r="BH37">
+      <c r="BJ37">
         <v>1486587520</v>
       </c>
     </row>
-    <row r="38" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>84</v>
       </c>
       <c r="B38" t="s">
         <v>404</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s">
+        <v>413</v>
+      </c>
+      <c r="I38" t="s">
+        <v>414</v>
+      </c>
+      <c r="J38" t="s">
+        <v>413</v>
+      </c>
+      <c r="K38" t="s">
+        <v>414</v>
+      </c>
+      <c r="L38" t="s">
+        <v>547</v>
+      </c>
+      <c r="M38" t="s">
         <v>542</v>
       </c>
-      <c r="D38" t="s">
-        <v>413</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="N38" t="s">
         <v>405</v>
       </c>
-      <c r="F38" t="s">
-        <v>414</v>
-      </c>
-      <c r="G38" t="s">
-        <v>547</v>
-      </c>
-      <c r="I38" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" t="s">
-        <v>78</v>
-      </c>
-      <c r="L38" t="s">
-        <v>413</v>
-      </c>
-      <c r="M38" t="s">
-        <v>414</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="T38" t="s">
         <v>403</v>
       </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
       <c r="V38">
         <v>0</v>
       </c>
@@ -7430,30 +7605,30 @@
       <c r="Y38">
         <v>0</v>
       </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
       <c r="AA38">
         <v>0</v>
       </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
       <c r="AC38">
         <v>0</v>
       </c>
-      <c r="AG38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO38" t="s">
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="s">
         <v>406</v>
       </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
       <c r="AR38">
         <v>0</v>
       </c>
@@ -7466,83 +7641,83 @@
       <c r="AU38">
         <v>0</v>
       </c>
-      <c r="AX38" t="s">
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="s">
         <v>407</v>
       </c>
-      <c r="AY38" s="5" t="s">
+      <c r="BA38" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="AZ38" t="s">
+      <c r="BB38" t="s">
         <v>409</v>
       </c>
-      <c r="BA38" t="s">
+      <c r="BC38" t="s">
         <v>164</v>
       </c>
-      <c r="BB38">
-        <v>0</v>
-      </c>
-      <c r="BC38">
-        <v>0</v>
-      </c>
-      <c r="BE38" t="s">
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BG38" t="s">
         <v>410</v>
       </c>
-      <c r="BF38" t="s">
+      <c r="BH38" t="s">
         <v>411</v>
       </c>
-      <c r="BG38" t="s">
+      <c r="BI38" t="s">
         <v>412</v>
       </c>
-      <c r="BH38">
+      <c r="BJ38">
         <v>1558132603</v>
       </c>
     </row>
-    <row r="39" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>86</v>
       </c>
       <c r="B39" t="s">
         <v>433</v>
       </c>
-      <c r="C39" t="s">
-        <v>542</v>
-      </c>
       <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>434</v>
+      </c>
+      <c r="G39" t="s">
         <v>78</v>
       </c>
-      <c r="E39" t="s">
-        <v>435</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s">
         <v>431</v>
-      </c>
-      <c r="G39" t="s">
-        <v>547</v>
-      </c>
-      <c r="H39" t="s">
-        <v>434</v>
-      </c>
-      <c r="I39" t="s">
-        <v>46</v>
       </c>
       <c r="J39" t="s">
         <v>78</v>
       </c>
+      <c r="K39" t="s">
+        <v>431</v>
+      </c>
       <c r="L39" t="s">
-        <v>78</v>
+        <v>547</v>
       </c>
       <c r="M39" t="s">
-        <v>431</v>
-      </c>
-      <c r="R39" t="s">
+        <v>542</v>
+      </c>
+      <c r="N39" t="s">
+        <v>435</v>
+      </c>
+      <c r="T39" t="s">
         <v>432</v>
       </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
       <c r="V39">
         <v>0</v>
       </c>
@@ -7555,107 +7730,107 @@
       <c r="Y39">
         <v>0</v>
       </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
       <c r="AA39">
         <v>0</v>
       </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
       <c r="AC39">
         <v>0</v>
       </c>
-      <c r="AG39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP39">
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR39">
         <v>37.724497878356999</v>
       </c>
-      <c r="AQ39">
+      <c r="AS39">
         <v>-122.47615697898</v>
       </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
-      <c r="AS39">
-        <v>0</v>
-      </c>
       <c r="AT39">
         <v>0</v>
       </c>
       <c r="AU39">
         <v>0</v>
       </c>
-      <c r="AX39" s="1" t="s">
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AY39" s="5" t="s">
+      <c r="BA39" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="AZ39" t="s">
+      <c r="BB39" t="s">
         <v>436</v>
       </c>
-      <c r="BA39" t="s">
+      <c r="BC39" t="s">
         <v>164</v>
       </c>
-      <c r="BB39">
-        <v>0</v>
-      </c>
-      <c r="BC39">
-        <v>0</v>
-      </c>
-      <c r="BE39" t="s">
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BG39" t="s">
         <v>437</v>
       </c>
-      <c r="BF39" t="s">
+      <c r="BH39" t="s">
         <v>438</v>
       </c>
-      <c r="BG39" t="s">
+      <c r="BI39" t="s">
         <v>439</v>
       </c>
-      <c r="BH39">
+      <c r="BJ39">
         <v>1491157281</v>
       </c>
     </row>
-    <row r="40" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>95</v>
       </c>
       <c r="B40" t="s">
         <v>472</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J40" t="s">
+        <v>477</v>
+      </c>
+      <c r="L40" t="s">
+        <v>547</v>
+      </c>
+      <c r="M40" t="s">
         <v>542</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G40" t="s">
-        <v>547</v>
-      </c>
-      <c r="I40" t="s">
-        <v>46</v>
-      </c>
-      <c r="J40" t="s">
-        <v>78</v>
-      </c>
-      <c r="L40" t="s">
-        <v>477</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="T40" t="s">
         <v>471</v>
       </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
       <c r="V40">
         <v>0</v>
       </c>
@@ -7668,107 +7843,107 @@
       <c r="Y40">
         <v>0</v>
       </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
       <c r="AA40">
         <v>0</v>
       </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
       <c r="AC40">
         <v>0</v>
       </c>
-      <c r="AG40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP40">
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR40">
         <v>37.724522175352</v>
       </c>
-      <c r="AQ40">
+      <c r="AS40">
         <v>-122.47583495055</v>
       </c>
-      <c r="AR40">
-        <v>0</v>
-      </c>
-      <c r="AS40">
-        <v>0</v>
-      </c>
       <c r="AT40">
         <v>0</v>
       </c>
       <c r="AU40">
         <v>0</v>
       </c>
-      <c r="AX40" t="s">
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="s">
         <v>248</v>
       </c>
-      <c r="AY40" s="5" t="s">
+      <c r="BA40" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="AZ40" s="1" t="s">
+      <c r="BB40" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="BA40" t="s">
+      <c r="BC40" t="s">
         <v>164</v>
       </c>
-      <c r="BB40">
-        <v>0</v>
-      </c>
-      <c r="BC40">
-        <v>0</v>
-      </c>
-      <c r="BE40" t="s">
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BG40" t="s">
         <v>474</v>
       </c>
-      <c r="BF40" t="s">
+      <c r="BH40" t="s">
         <v>475</v>
       </c>
-      <c r="BG40" t="s">
+      <c r="BI40" t="s">
         <v>476</v>
       </c>
-      <c r="BH40">
+      <c r="BJ40">
         <v>1516311265</v>
       </c>
     </row>
-    <row r="41" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>98</v>
       </c>
       <c r="B41" t="s">
         <v>494</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J41" t="s">
+        <v>255</v>
+      </c>
+      <c r="L41" t="s">
+        <v>547</v>
+      </c>
+      <c r="M41" t="s">
         <v>542</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G41" t="s">
-        <v>547</v>
-      </c>
-      <c r="I41" t="s">
-        <v>46</v>
-      </c>
-      <c r="J41" t="s">
-        <v>78</v>
-      </c>
-      <c r="L41" t="s">
-        <v>255</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="T41" t="s">
         <v>493</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
       <c r="V41">
         <v>0</v>
       </c>
@@ -7781,101 +7956,101 @@
       <c r="Y41">
         <v>0</v>
       </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
       <c r="AA41">
         <v>0</v>
       </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
       <c r="AC41">
         <v>0</v>
       </c>
-      <c r="AG41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="s">
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="s">
         <v>495</v>
       </c>
-      <c r="AP41">
+      <c r="AR41">
         <v>37.724244460544</v>
       </c>
-      <c r="AQ41">
+      <c r="AS41">
         <v>-122.47631101125999</v>
       </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>0</v>
-      </c>
       <c r="AT41">
         <v>0</v>
       </c>
       <c r="AU41">
         <v>0</v>
       </c>
-      <c r="AX41" t="s">
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="s">
         <v>248</v>
       </c>
-      <c r="AY41" s="5" t="s">
+      <c r="BA41" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="BA41" t="s">
+      <c r="BC41" t="s">
         <v>164</v>
       </c>
-      <c r="BB41">
+      <c r="BD41">
         <v>1</v>
       </c>
-      <c r="BC41">
-        <v>0</v>
-      </c>
-      <c r="BF41" t="s">
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BH41" t="s">
         <v>497</v>
       </c>
-      <c r="BG41" t="s">
+      <c r="BI41" t="s">
         <v>498</v>
       </c>
-      <c r="BH41">
+      <c r="BJ41">
         <v>1529352282</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>99</v>
       </c>
       <c r="B42" t="s">
         <v>494</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L42" t="s">
+        <v>547</v>
+      </c>
+      <c r="M42" t="s">
         <v>542</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G42" t="s">
-        <v>547</v>
-      </c>
-      <c r="I42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" t="s">
-        <v>78</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="T42" t="s">
         <v>493</v>
       </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
       <c r="V42">
         <v>0</v>
       </c>
@@ -7888,107 +8063,107 @@
       <c r="Y42">
         <v>0</v>
       </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
       <c r="AA42">
         <v>0</v>
       </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
       <c r="AC42">
         <v>0</v>
       </c>
-      <c r="AG42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="s">
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="s">
         <v>495</v>
       </c>
-      <c r="AP42">
+      <c r="AR42">
         <v>37.724244460544</v>
       </c>
-      <c r="AQ42">
+      <c r="AS42">
         <v>-122.47631101125999</v>
       </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AS42">
-        <v>0</v>
-      </c>
       <c r="AT42">
         <v>0</v>
       </c>
       <c r="AU42">
         <v>0</v>
       </c>
-      <c r="AX42" t="s">
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="s">
         <v>248</v>
       </c>
-      <c r="AY42" s="5" t="s">
+      <c r="BA42" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="BA42" t="s">
+      <c r="BC42" t="s">
         <v>164</v>
       </c>
-      <c r="BB42">
+      <c r="BD42">
         <v>1</v>
       </c>
-      <c r="BC42">
-        <v>0</v>
-      </c>
-      <c r="BF42" t="s">
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="s">
         <v>499</v>
       </c>
-      <c r="BG42" t="s">
+      <c r="BI42" t="s">
         <v>498</v>
       </c>
-      <c r="BH42">
+      <c r="BJ42">
         <v>1529352284</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>100</v>
       </c>
       <c r="B43" t="s">
         <v>501</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J43" t="s">
+        <v>138</v>
+      </c>
+      <c r="L43" t="s">
+        <v>547</v>
+      </c>
+      <c r="M43" t="s">
         <v>542</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="N43" t="s">
         <v>502</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G43" t="s">
-        <v>547</v>
-      </c>
-      <c r="I43" t="s">
-        <v>46</v>
-      </c>
-      <c r="J43" t="s">
-        <v>78</v>
-      </c>
-      <c r="L43" t="s">
-        <v>138</v>
-      </c>
-      <c r="R43" t="s">
+      <c r="T43" t="s">
         <v>500</v>
       </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
       <c r="V43">
         <v>0</v>
       </c>
@@ -8001,25 +8176,25 @@
       <c r="Y43">
         <v>0</v>
       </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
       <c r="AA43">
         <v>0</v>
       </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
       <c r="AC43">
         <v>0</v>
       </c>
-      <c r="AG43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43">
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="3">
         <v>0</v>
       </c>
       <c r="AR43">
@@ -8034,37 +8209,43 @@
       <c r="AU43">
         <v>0</v>
       </c>
-      <c r="AX43" t="s">
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="s">
         <v>131</v>
       </c>
-      <c r="AY43" s="5" t="s">
+      <c r="BA43" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="BA43" t="s">
+      <c r="BC43" t="s">
         <v>164</v>
       </c>
-      <c r="BB43">
-        <v>0</v>
-      </c>
-      <c r="BC43">
-        <v>0</v>
-      </c>
-      <c r="BE43" t="s">
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BG43" t="s">
         <v>504</v>
       </c>
-      <c r="BF43" t="s">
+      <c r="BH43" t="s">
         <v>505</v>
       </c>
-      <c r="BG43" t="s">
+      <c r="BI43" t="s">
         <v>506</v>
       </c>
-      <c r="BH43">
+      <c r="BJ43">
         <v>1533237668</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CA44">
-    <sortCondition descending="1" ref="N2:N44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CC44">
+    <sortCondition descending="1" ref="O2:O44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8072,7 +8253,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A48CFD6-7DCC-7542-8652-118949ECE839}">
-  <dimension ref="A1:BX45"/>
+  <dimension ref="A1:BG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1:O1048576"/>
@@ -8494,7 +8675,7 @@
         <v>64</v>
       </c>
       <c r="N3" t="str">
-        <f>CONCATENATE(A3,".xlsx")</f>
+        <f t="shared" ref="N3:N10" si="0">CONCATENATE(A3,".xlsx")</f>
         <v>64.xlsx</v>
       </c>
       <c r="O3" t="s">
@@ -8650,7 +8831,7 @@
         <v>64</v>
       </c>
       <c r="N4" t="str">
-        <f>CONCATENATE(A4,".xlsx")</f>
+        <f t="shared" si="0"/>
         <v>66.xlsx</v>
       </c>
       <c r="O4" t="s">
@@ -8803,7 +8984,7 @@
         <v>402</v>
       </c>
       <c r="N5" t="str">
-        <f>CONCATENATE(A5,".xlsx")</f>
+        <f t="shared" si="0"/>
         <v>83.xlsx</v>
       </c>
       <c r="O5" t="s">
@@ -8944,7 +9125,7 @@
         <v>301</v>
       </c>
       <c r="N6" t="str">
-        <f>CONCATENATE(A6,".xlsx")</f>
+        <f t="shared" si="0"/>
         <v>46.xlsx</v>
       </c>
       <c r="O6" t="s">
@@ -9091,7 +9272,7 @@
         <v>155</v>
       </c>
       <c r="N7" t="str">
-        <f>CONCATENATE(A7,".xlsx")</f>
+        <f t="shared" si="0"/>
         <v>22.xlsx</v>
       </c>
       <c r="O7" t="s">
@@ -9238,7 +9419,7 @@
         <v>155</v>
       </c>
       <c r="N8" t="str">
-        <f>CONCATENATE(A8,".xlsx")</f>
+        <f t="shared" si="0"/>
         <v>29.xlsx</v>
       </c>
       <c r="O8" t="s">
@@ -9385,7 +9566,7 @@
         <v>470</v>
       </c>
       <c r="N9" t="str">
-        <f>CONCATENATE(A9,".xlsx")</f>
+        <f t="shared" si="0"/>
         <v>89.xlsx</v>
       </c>
       <c r="O9" t="s">
@@ -9532,7 +9713,7 @@
         <v>523</v>
       </c>
       <c r="N10" t="str">
-        <f>CONCATENATE(A10,".xlsx")</f>
+        <f t="shared" si="0"/>
         <v>101.xlsx</v>
       </c>
       <c r="O10" t="s">
@@ -13979,7 +14160,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>RIGHT(F2,37)</f>
+        <f t="shared" ref="A2:A18" si="0">RIGHT(F2,37)</f>
         <v>a76217bd787a7429ffa48870f885239f.xlsx</v>
       </c>
       <c r="B2" t="s">
@@ -13995,14 +14176,14 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>RIGHT(F3,37)</f>
+        <f t="shared" si="0"/>
         <v>6be654689e04d6c9348e2ef7467569ba.xlsx</v>
       </c>
       <c r="B3" t="s">
         <v>595</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C18" si="0">CONCATENATE("mv ",A3," ",B3)</f>
+        <f t="shared" ref="C3:C18" si="1">CONCATENATE("mv ",A3," ",B3)</f>
         <v>mv 6be654689e04d6c9348e2ef7467569ba.xlsx 110.xlsx</v>
       </c>
       <c r="F3" t="s">
@@ -14011,14 +14192,14 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>RIGHT(F4,37)</f>
+        <f t="shared" si="0"/>
         <v>7f5d6fe37b819da189d99e077aa89279.xlsx</v>
       </c>
       <c r="B4" t="s">
         <v>583</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv 7f5d6fe37b819da189d99e077aa89279.xlsx 46.xlsx</v>
       </c>
       <c r="F4" t="s">
@@ -14027,14 +14208,14 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>RIGHT(F5,37)</f>
+        <f t="shared" si="0"/>
         <v>1958720a9fc8fd57674e603852390a50.xlsx</v>
       </c>
       <c r="B5" t="s">
         <v>586</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv 1958720a9fc8fd57674e603852390a50.xlsx 49.xlsx</v>
       </c>
       <c r="F5" t="s">
@@ -14043,14 +14224,14 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>RIGHT(F6,37)</f>
+        <f t="shared" si="0"/>
         <v>cbdaa1247e9bcd6fa41bd2fba9cadb37.xlsx</v>
       </c>
       <c r="B6" t="s">
         <v>578</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv cbdaa1247e9bcd6fa41bd2fba9cadb37.xlsx 52.xlsx</v>
       </c>
       <c r="F6" t="s">
@@ -14059,14 +14240,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>RIGHT(F7,37)</f>
+        <f t="shared" si="0"/>
         <v>be79ff9a50c8093816b808a37817c310.xlsx</v>
       </c>
       <c r="B7" t="s">
         <v>587</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv be79ff9a50c8093816b808a37817c310.xlsx 55.xlsx</v>
       </c>
       <c r="F7" t="s">
@@ -14075,14 +14256,14 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>RIGHT(F8,37)</f>
+        <f t="shared" si="0"/>
         <v>d0541ad898cf62407e48c8cf04215cf8.xlsx</v>
       </c>
       <c r="B8" t="s">
         <v>588</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv d0541ad898cf62407e48c8cf04215cf8.xlsx 58.xlsx</v>
       </c>
       <c r="F8" t="s">
@@ -14091,14 +14272,14 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>RIGHT(F9,37)</f>
+        <f t="shared" si="0"/>
         <v>299c0fedddb0a412480240cbc6eeecd2.xlsx</v>
       </c>
       <c r="B9" t="s">
         <v>580</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv 299c0fedddb0a412480240cbc6eeecd2.xlsx 64.xlsx</v>
       </c>
       <c r="F9" t="s">
@@ -14107,14 +14288,14 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>RIGHT(F10,37)</f>
+        <f t="shared" si="0"/>
         <v>77cc4bf82c061c03e78edfbdcceb0961.xlsx</v>
       </c>
       <c r="B10" t="s">
         <v>581</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv 77cc4bf82c061c03e78edfbdcceb0961.xlsx 66.xlsx</v>
       </c>
       <c r="F10" t="s">
@@ -14123,14 +14304,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>RIGHT(F11,37)</f>
+        <f t="shared" si="0"/>
         <v>1250d61e8b6d92d86ce4ae1653f92387.xlsx</v>
       </c>
       <c r="B11" t="s">
         <v>582</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv 1250d61e8b6d92d86ce4ae1653f92387.xlsx 83.xlsx</v>
       </c>
       <c r="F11" t="s">
@@ -14139,14 +14320,14 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>RIGHT(F12,37)</f>
+        <f t="shared" si="0"/>
         <v>ec344bf12c675d751036895b706c7810.xlsx</v>
       </c>
       <c r="B12" t="s">
         <v>589</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv ec344bf12c675d751036895b706c7810.xlsx 85.xlsx</v>
       </c>
       <c r="F12" t="s">
@@ -14155,14 +14336,14 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>RIGHT(F13,37)</f>
+        <f t="shared" si="0"/>
         <v>4ff2ea78ff5cd0038edd46ac0f1e26c7.xlsx</v>
       </c>
       <c r="B13" t="s">
         <v>590</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv 4ff2ea78ff5cd0038edd46ac0f1e26c7.xlsx 88.xlsx</v>
       </c>
       <c r="F13" t="s">
@@ -14171,14 +14352,14 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>RIGHT(F14,37)</f>
+        <f t="shared" si="0"/>
         <v>506b347661892c57eaa03d2f49b3ec05.xlsx</v>
       </c>
       <c r="B14" t="s">
         <v>584</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv 506b347661892c57eaa03d2f49b3ec05.xlsx 89.xlsx</v>
       </c>
       <c r="F14" t="s">
@@ -14187,14 +14368,14 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>RIGHT(F15,37)</f>
+        <f t="shared" si="0"/>
         <v>c654f4c5fb6de5ba1e5b9aacef69e604.xlsx</v>
       </c>
       <c r="B15" t="s">
         <v>591</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv c654f4c5fb6de5ba1e5b9aacef69e604.xlsx 92.xlsx</v>
       </c>
       <c r="F15" t="s">
@@ -14203,14 +14384,14 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>RIGHT(F16,37)</f>
+        <f t="shared" si="0"/>
         <v>e6df7b391f16217584ea65c5bd9fa709.xlsx</v>
       </c>
       <c r="B16" t="s">
         <v>592</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv e6df7b391f16217584ea65c5bd9fa709.xlsx 93.xlsx</v>
       </c>
       <c r="F16" t="s">
@@ -14219,14 +14400,14 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>RIGHT(F17,37)</f>
+        <f t="shared" si="0"/>
         <v>b61548184b5f4a25942689b72b1378ac.xlsx</v>
       </c>
       <c r="B17" t="s">
         <v>593</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv b61548184b5f4a25942689b72b1378ac.xlsx 94.xlsx</v>
       </c>
       <c r="F17" t="s">
@@ -14235,14 +14416,14 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>RIGHT(F18,37)</f>
+        <f t="shared" si="0"/>
         <v>47a944bf3ee5bd611ad6e0c8a463ce19.xlsx</v>
       </c>
       <c r="B18" t="s">
         <v>594</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mv 47a944bf3ee5bd611ad6e0c8a463ce19.xlsx 96.xlsx</v>
       </c>
       <c r="F18" t="s">
@@ -14251,79 +14432,79 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>RIGHT(F31,37)</f>
+        <f t="shared" ref="A31:A43" si="2">RIGHT(F31,37)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>RIGHT(F32,37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>RIGHT(F33,37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>RIGHT(F34,37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>RIGHT(F35,37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>RIGHT(F36,37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>RIGHT(F37,37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>RIGHT(F38,37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>RIGHT(F39,37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>RIGHT(F40,37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>RIGHT(F41,37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>RIGHT(F42,37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>RIGHT(F43,37)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14337,7 +14518,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2820F5-D530-A546-A5A3-5EA1FF1FC83D}">
-  <dimension ref="A1:BW45"/>
+  <dimension ref="A1:BF45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>

--- a/amphibianDisease/project_data.xlsx
+++ b/amphibianDisease/project_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdeck/IdeaProjects/geome-configurations/amphibianDisease/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0248F80-BAB7-6A4F-8DCD-5F5EF450B0CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6688E0-43D0-6049-BD11-34AE317016AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1280" windowWidth="28800" windowHeight="17540" xr2:uid="{87B2717E-456E-9945-BDD7-9BDF39B569DB}"/>
+    <workbookView xWindow="4960" yWindow="1460" windowWidth="33720" windowHeight="20060" xr2:uid="{87B2717E-456E-9945-BDD7-9BDF39B569DB}"/>
   </bookViews>
   <sheets>
     <sheet name="ImportToGeome" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -221,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="626">
   <si>
     <t>id</t>
   </si>
@@ -2020,9 +2022,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>uploaded</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1007/s10393-016-1188-7</t>
   </si>
   <si>
@@ -2098,7 +2097,10 @@
     <t>same as #64</t>
   </si>
   <si>
-    <t>not uploaded</t>
+    <t>UPLOADED</t>
+  </si>
+  <si>
+    <t>DUPLICATE (#64)</t>
   </si>
 </sst>
 </file>
@@ -2519,31 +2521,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC96A785-D9F0-B74E-9FAA-6694B3FC8D06}">
-  <dimension ref="A1:BJ43"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="920" activePane="bottomLeft"/>
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="U19" sqref="U19"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="16" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="14.83203125" customWidth="1"/>
     <col min="18" max="18" width="14.1640625" customWidth="1"/>
     <col min="19" max="19" width="25.83203125" customWidth="1"/>
@@ -2592,49 +2595,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>598</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>579</v>
@@ -2778,40 +2781,40 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" t="s">
         <v>289</v>
       </c>
-      <c r="C2" t="s">
-        <v>606</v>
-      </c>
       <c r="D2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>301</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>571</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>554</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>571</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>554</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>560</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>546</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>296</v>
-      </c>
-      <c r="O2" t="s">
-        <v>599</v>
       </c>
       <c r="Q2" t="str">
         <f>CONCATENATE(A2,".xlsx")</f>
@@ -2933,41 +2936,38 @@
       <c r="A3" s="17">
         <v>101</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>607</v>
-      </c>
       <c r="D3" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="L3" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>513</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>599</v>
       </c>
       <c r="Q3" s="17" t="str">
         <f>CONCATENATE(A3,".xlsx")</f>
@@ -3086,38 +3086,35 @@
       <c r="A4" s="17">
         <v>110</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>608</v>
-      </c>
       <c r="D4" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="M4" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="N4" s="17" t="s">
         <v>542</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>599</v>
       </c>
       <c r="Q4" s="17" t="str">
         <f>CONCATENATE(A4,".xlsx")</f>
@@ -3237,37 +3234,37 @@
         <v>83</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>609</v>
-      </c>
       <c r="D5" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="Q5" s="7" t="str">
         <f>CONCATENATE(A5,".xlsx")</f>
@@ -3387,46 +3384,46 @@
         <v>49</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>622</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>603</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>78</v>
+        <v>602</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="Q6" s="7" t="str">
         <f>CONCATENATE(A6,".xlsx")</f>
@@ -3548,44 +3545,41 @@
       <c r="A7" s="7">
         <v>52</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>610</v>
-      </c>
       <c r="D7" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>602</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>601</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>58</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>578</v>
@@ -3706,44 +3700,41 @@
       <c r="A8" s="7">
         <v>55</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>611</v>
-      </c>
       <c r="D8" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>601</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>600</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="Q8" s="7" t="str">
         <f t="shared" ref="Q8:Q18" si="0">CONCATENATE(A8,".xlsx")</f>
@@ -3871,38 +3862,35 @@
       <c r="A9" s="7">
         <v>58</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>612</v>
-      </c>
       <c r="D9" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>58</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="Q9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4024,41 +4012,38 @@
       <c r="A10" s="7">
         <v>64</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>613</v>
-      </c>
       <c r="D10" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>600</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>599</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>58</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="Q10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4186,44 +4171,44 @@
       <c r="A11" s="12">
         <v>66</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>614</v>
-      </c>
       <c r="D11" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>600</v>
-      </c>
       <c r="G11" s="12" t="s">
-        <v>58</v>
+        <v>599</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>58</v>
       </c>
       <c r="I11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="K11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="M11" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="O11" s="13" t="s">
-        <v>625</v>
-      </c>
       <c r="P11" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4351,44 +4336,41 @@
       <c r="A12" s="17">
         <v>85</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>615</v>
-      </c>
       <c r="D12" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>78</v>
       </c>
       <c r="I12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="K12" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="L12" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="O12" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>599</v>
       </c>
       <c r="Q12" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4510,38 +4492,35 @@
       <c r="A13" s="17">
         <v>88</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>616</v>
-      </c>
       <c r="D13" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="H13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="J13" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="K13" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="L13" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="M13" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="N13" s="17" t="s">
         <v>542</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>599</v>
       </c>
       <c r="Q13" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4663,41 +4642,38 @@
       <c r="A14" s="7">
         <v>89</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>617</v>
-      </c>
       <c r="D14" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>465</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="Q14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4816,38 +4792,35 @@
       <c r="A15" s="17">
         <v>92</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>618</v>
-      </c>
       <c r="D15" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="H15" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="I15" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="J15" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="K15" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="L15" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="M15" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="N15" s="17" t="s">
         <v>542</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>599</v>
       </c>
       <c r="Q15" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4969,41 +4942,38 @@
       <c r="A16" s="7">
         <v>93</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>619</v>
-      </c>
       <c r="D16" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="O16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="Q16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5128,38 +5098,35 @@
       <c r="A17" s="7">
         <v>94</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>620</v>
-      </c>
       <c r="D17" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="Q17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5281,41 +5248,38 @@
       <c r="A18" s="7">
         <v>96</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>621</v>
-      </c>
       <c r="D18" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="N18" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="Q18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5440,31 +5404,31 @@
       <c r="A19">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>325</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>46</v>
       </c>
-      <c r="F19" t="s">
-        <v>604</v>
-      </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>603</v>
       </c>
       <c r="H19" t="s">
         <v>78</v>
       </c>
       <c r="I19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" t="s">
         <v>431</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>547</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>542</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>326</v>
       </c>
       <c r="T19" t="s">
@@ -5553,31 +5517,31 @@
       <c r="A20">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>258</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>46</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>262</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>261</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>78</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>431</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>547</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>542</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>259</v>
       </c>
       <c r="T20" t="s">
@@ -5666,31 +5630,31 @@
       <c r="A21">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>267</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>268</v>
-      </c>
-      <c r="G21" t="s">
-        <v>78</v>
       </c>
       <c r="H21" t="s">
         <v>78</v>
       </c>
       <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" t="s">
         <v>431</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>547</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>542</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>269</v>
       </c>
       <c r="T21" t="s">
@@ -5779,31 +5743,31 @@
       <c r="A22">
         <v>59</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>157</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>46</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>159</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>163</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>78</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>431</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>547</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>542</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>160</v>
       </c>
       <c r="T22" t="s">
@@ -5895,25 +5859,25 @@
       <c r="A23">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>333</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>46</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>547</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>547</v>
       </c>
       <c r="T23" t="s">
@@ -6008,31 +5972,31 @@
       <c r="A24">
         <v>62</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>341</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>46</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>345</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>572</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>350</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>349</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>350</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>547</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>542</v>
       </c>
       <c r="T24" t="s">
@@ -6124,25 +6088,25 @@
       <c r="A25">
         <v>63</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>352</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>46</v>
-      </c>
-      <c r="G25" t="s">
-        <v>356</v>
       </c>
       <c r="H25" t="s">
         <v>356</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
+        <v>356</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>547</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>542</v>
       </c>
       <c r="T25" t="s">
@@ -6234,34 +6198,34 @@
       <c r="A26">
         <v>67</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>370</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>171</v>
-      </c>
-      <c r="G26" t="s">
-        <v>373</v>
       </c>
       <c r="H26" t="s">
         <v>373</v>
       </c>
       <c r="I26" t="s">
+        <v>373</v>
+      </c>
+      <c r="J26" t="s">
         <v>558</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>377</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>378</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>562</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>544</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>371</v>
       </c>
       <c r="T26" t="s">
@@ -6353,25 +6317,25 @@
       <c r="A27">
         <v>68</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>380</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>171</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>382</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>377</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>378</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>562</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>544</v>
       </c>
       <c r="T27" t="s">
@@ -6463,25 +6427,25 @@
       <c r="A28">
         <v>69</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>169</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>171</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>174</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>377</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>378</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>562</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>544</v>
       </c>
       <c r="T28" t="s">
@@ -6573,25 +6537,25 @@
       <c r="A29">
         <v>70</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>179</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>171</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>181</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>377</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>378</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>562</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>544</v>
       </c>
       <c r="T29" t="s">
@@ -6683,25 +6647,25 @@
       <c r="A30">
         <v>72</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>186</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>171</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>188</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>377</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>378</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>562</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>544</v>
       </c>
       <c r="T30" t="s">
@@ -6790,25 +6754,25 @@
       <c r="A31">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>193</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>171</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>195</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>377</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>378</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>562</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>544</v>
       </c>
       <c r="T31" t="s">
@@ -6900,25 +6864,25 @@
       <c r="A32">
         <v>75</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>200</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>171</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>202</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>377</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>378</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>562</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>544</v>
       </c>
       <c r="T32" t="s">
@@ -7010,25 +6974,25 @@
       <c r="A33">
         <v>77</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>207</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>171</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>209</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>377</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>378</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>562</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>544</v>
       </c>
       <c r="T33" t="s">
@@ -7120,25 +7084,25 @@
       <c r="A34">
         <v>78</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>214</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>171</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>216</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>377</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>378</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>562</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>544</v>
       </c>
       <c r="T34" t="s">
@@ -7230,25 +7194,25 @@
       <c r="A35">
         <v>79</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>221</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>171</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>223</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>377</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>378</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>562</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>544</v>
       </c>
       <c r="T35" t="s">
@@ -7340,25 +7304,25 @@
       <c r="A36">
         <v>80</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>228</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>171</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>209</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>377</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>378</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>562</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>544</v>
       </c>
       <c r="T36" t="s">
@@ -7450,25 +7414,25 @@
       <c r="A37">
         <v>81</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>234</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>171</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>236</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>377</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>378</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>562</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>544</v>
       </c>
       <c r="T37" t="s">
@@ -7560,34 +7524,34 @@
       <c r="A38">
         <v>84</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>404</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>46</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>78</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>413</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>414</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>413</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>414</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>547</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>542</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>405</v>
       </c>
       <c r="T38" t="s">
@@ -7682,37 +7646,37 @@
       <c r="A39">
         <v>86</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>433</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>46</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>434</v>
-      </c>
-      <c r="G39" t="s">
-        <v>78</v>
       </c>
       <c r="H39" t="s">
         <v>78</v>
       </c>
       <c r="I39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s">
         <v>431</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>78</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>431</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>547</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>542</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>435</v>
       </c>
       <c r="T39" t="s">
@@ -7804,28 +7768,28 @@
       <c r="A40">
         <v>95</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>472</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>46</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>78</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>477</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>547</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>542</v>
       </c>
       <c r="T40" t="s">
@@ -7917,28 +7881,28 @@
       <c r="A41">
         <v>98</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>494</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>46</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>255</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>547</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>542</v>
       </c>
       <c r="T41" t="s">
@@ -8027,25 +7991,25 @@
       <c r="A42">
         <v>99</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>494</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>46</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>78</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>547</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>542</v>
       </c>
       <c r="T42" t="s">
@@ -8134,31 +8098,31 @@
       <c r="A43">
         <v>100</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>501</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>46</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>138</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>547</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>542</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>502</v>
       </c>
       <c r="T43" t="s">
@@ -8244,9 +8208,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CC44">
-    <sortCondition descending="1" ref="O2:O44"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
